--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F45A495-1C5D-467B-87CC-CDB2665BDD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5962C65-1F5C-468C-B9F6-66F9587C6F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="113">
   <si>
     <t>Cântare</t>
   </si>
@@ -710,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,9 +1066,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1079,6 +1076,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,23 +1362,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="24" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="16.5" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,14 +1394,14 @@
       <c r="F2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1409,9 +1409,9 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1419,9 +1419,9 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1429,9 +1429,9 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1439,9 +1439,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1449,9 +1449,9 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1459,10 +1459,10 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1477,30 +1477,30 @@
       <c r="F9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1513,20 +1513,20 @@
         <v>93</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -1541,20 +1541,20 @@
       <c r="F14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -1569,71 +1569,71 @@
       <c r="F16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -1648,30 +1648,30 @@
       <c r="F23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -1686,30 +1686,30 @@
       <c r="F26" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -1724,160 +1724,160 @@
       <c r="F29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -1892,90 +1892,90 @@
       <c r="F45" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="26" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="26" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -1990,30 +1990,30 @@
       <c r="F54" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -2028,705 +2028,740 @@
       <c r="F57" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="26" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="26" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="20"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="20"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="20"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="18" t="s">
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="20"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="20"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="18" t="s">
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="26" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="20"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="20"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
+      <c r="G67" s="19"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="20"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="26" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="26"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
+      <c r="G70" s="21"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="26" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="26"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="G71" s="21"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="20"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="18" t="s">
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="20"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="26" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="26"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
+      <c r="G74" s="21"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="26" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="20"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="26" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="20"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="18" t="s">
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="26" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="20"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="26"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="18" t="s">
+      <c r="G78" s="21"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="20"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="18" t="s">
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="20"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="18" t="s">
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="26"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+      <c r="G81" s="21"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="20"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="18" t="s">
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="26"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="18" t="s">
+      <c r="G83" s="21"/>
+      <c r="H83" s="25"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="26" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="20"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="18" t="s">
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="26" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="20"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="18" t="s">
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="20"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="18" t="s">
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="26"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="18" t="s">
+      <c r="G87" s="21"/>
+      <c r="H87" s="25"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="26"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="18" t="s">
+      <c r="C88" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="26" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="20"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="20"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="18" t="s">
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="20"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="26"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="18" t="s">
+      <c r="C92" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="20"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="26" t="s">
         <v>97</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="20"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="18" t="s">
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="20"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="18" t="s">
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="20"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="18" t="s">
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="20"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="26" t="s">
         <v>101</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="20"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="18" t="s">
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="26"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="18" t="s">
+      <c r="C99" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G99" s="21"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="26"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="18" t="s">
+      <c r="C100" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G100" s="21"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="26" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="26"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="18" t="s">
+      <c r="G101" s="21"/>
+      <c r="H101" s="25"/>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="26"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="18" t="s">
+      <c r="C102" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G102" s="21"/>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="26" t="s">
         <v>104</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="20"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="18" t="s">
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="26"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="18" t="s">
+      <c r="G104" s="21"/>
+      <c r="H104" s="25"/>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="26" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="20"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="18" t="s">
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="26" t="s">
         <v>107</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="20"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="18" t="s">
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="26" t="s">
         <v>108</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="20"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="20"/>
+      <c r="G107" s="19"/>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="20"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="20"/>
+      <c r="G108" s="19"/>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="20"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="20"/>
+      <c r="G109" s="19"/>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="20"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="20"/>
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="20"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="20"/>
+      <c r="G111" s="19"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="20"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="20"/>
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="20"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="20"/>
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="20"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="20"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="20"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="20"/>
+      <c r="G115" s="19"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="20"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="20"/>
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="20"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="20"/>
+      <c r="G117" s="19"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="20"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="20"/>
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="20"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="20"/>
+      <c r="G119" s="19"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="20"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="20"/>
+      <c r="G120" s="19"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="20"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="20"/>
+      <c r="G121" s="19"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="20"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="20"/>
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="20"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="20"/>
+      <c r="G123" s="19"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="20"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="20"/>
+      <c r="G124" s="19"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="20"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="20"/>
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="20"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="20"/>
+      <c r="G126" s="19"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="20"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="20"/>
+      <c r="G127" s="19"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="20"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="20"/>
+      <c r="G128" s="19"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="20"/>
-    </row>
-    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="21"/>
+      <c r="G129" s="19"/>
+    </row>
+    <row r="130" spans="2:7" ht="16.5" thickBot="1">
+      <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="8"/>
-      <c r="G130" s="21"/>
+      <c r="G130" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5962C65-1F5C-468C-B9F6-66F9587C6F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE514DE-5E7A-441C-9340-4523F1B28F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Cântare</t>
   </si>
@@ -282,9 +282,6 @@
     <t>84.    Iubirea-adânca a Tatălui</t>
   </si>
   <si>
-    <t>85.    Ce bucurie</t>
-  </si>
-  <si>
     <t>86.    Doamne am greșit</t>
   </si>
   <si>
@@ -704,13 +701,16 @@
       </rPr>
       <t>Fă-ți timp pentru El</t>
     </r>
+  </si>
+  <si>
+    <t>85.    Cu bucurie vom zbura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,9 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,11 +1359,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
@@ -1377,31 +1374,31 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="16.5" thickBot="1">
+    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="G2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1408,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1421,7 +1418,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1428,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1438,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1448,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1461,26 +1458,26 @@
       <c r="F8" s="6"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13"/>
@@ -1489,8 +1486,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="13"/>
@@ -1499,24 +1496,24 @@
       <c r="F11" s="6"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="13"/>
@@ -1525,26 +1522,26 @@
       <c r="F13" s="6"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="13"/>
@@ -1553,26 +1550,26 @@
       <c r="F15" s="6"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="13"/>
@@ -1581,8 +1578,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="26" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13"/>
@@ -1591,8 +1588,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="13"/>
@@ -1601,8 +1598,8 @@
       <c r="F19" s="6"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="13"/>
@@ -1611,8 +1608,8 @@
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="13"/>
@@ -1621,8 +1618,8 @@
       <c r="F21" s="6"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="26" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="13"/>
@@ -1632,26 +1629,26 @@
       <c r="G22" s="21"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="26" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="26" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="13"/>
@@ -1660,8 +1657,8 @@
       <c r="F24" s="6"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="13"/>
@@ -1670,26 +1667,26 @@
       <c r="F25" s="6"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="26" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="13"/>
@@ -1698,8 +1695,8 @@
       <c r="F27" s="6"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="13"/>
@@ -1708,26 +1705,26 @@
       <c r="F28" s="6"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="13"/>
@@ -1736,8 +1733,8 @@
       <c r="F30" s="6"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="26" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="13"/>
@@ -1746,8 +1743,8 @@
       <c r="F31" s="6"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="26" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="13"/>
@@ -1756,8 +1753,8 @@
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="26" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="13"/>
@@ -1766,8 +1763,8 @@
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="26" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="13"/>
@@ -1776,8 +1773,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="26" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="13"/>
@@ -1786,8 +1783,8 @@
       <c r="F35" s="6"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="26" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="13"/>
@@ -1796,8 +1793,8 @@
       <c r="F36" s="6"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="26" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="13"/>
@@ -1806,8 +1803,8 @@
       <c r="F37" s="6"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="26" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="13"/>
@@ -1816,8 +1813,8 @@
       <c r="F38" s="6"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="26" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="13"/>
@@ -1826,8 +1823,8 @@
       <c r="F39" s="6"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="26" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="13"/>
@@ -1836,8 +1833,8 @@
       <c r="F40" s="6"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="26" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="13"/>
@@ -1846,8 +1843,8 @@
       <c r="F41" s="6"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="26" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="13"/>
@@ -1856,8 +1853,8 @@
       <c r="F42" s="6"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="26" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="13"/>
@@ -1866,8 +1863,8 @@
       <c r="F43" s="6"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="26" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="13"/>
@@ -1876,26 +1873,26 @@
       <c r="F44" s="6"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="26" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="13"/>
@@ -1904,8 +1901,8 @@
       <c r="F46" s="6"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="13"/>
@@ -1914,8 +1911,8 @@
       <c r="F47" s="6"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="26" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="13"/>
@@ -1924,8 +1921,8 @@
       <c r="F48" s="6"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="26" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="13"/>
@@ -1934,8 +1931,8 @@
       <c r="F49" s="6"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="26" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="13"/>
@@ -1944,8 +1941,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="26" t="s">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="13"/>
@@ -1954,8 +1951,8 @@
       <c r="F51" s="6"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="26" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="13"/>
@@ -1964,8 +1961,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="26" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="13"/>
@@ -1974,26 +1971,26 @@
       <c r="F53" s="6"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="26" t="s">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="26" t="s">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="13"/>
@@ -2002,8 +1999,8 @@
       <c r="F55" s="6"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="26" t="s">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="13"/>
@@ -2012,26 +2009,26 @@
       <c r="F56" s="6"/>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="26" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="13"/>
@@ -2040,8 +2037,8 @@
       <c r="F58" s="6"/>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="26" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="13"/>
@@ -2050,8 +2047,8 @@
       <c r="F59" s="6"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="26" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="13"/>
@@ -2060,8 +2057,8 @@
       <c r="F60" s="6"/>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="26" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="13"/>
@@ -2070,8 +2067,8 @@
       <c r="F61" s="6"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="26" t="s">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="13"/>
@@ -2080,8 +2077,8 @@
       <c r="F62" s="6"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="26" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="13"/>
@@ -2090,8 +2087,8 @@
       <c r="F63" s="6"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="26" t="s">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="13"/>
@@ -2100,8 +2097,8 @@
       <c r="F64" s="6"/>
       <c r="G64" s="19"/>
     </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="26" t="s">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="13"/>
@@ -2110,8 +2107,8 @@
       <c r="F65" s="6"/>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="26" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="13"/>
@@ -2120,8 +2117,8 @@
       <c r="F66" s="6"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="26" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="13"/>
@@ -2130,8 +2127,8 @@
       <c r="F67" s="6"/>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="26" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="13"/>
@@ -2140,8 +2137,8 @@
       <c r="F68" s="6"/>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="26" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="13"/>
@@ -2150,8 +2147,8 @@
       <c r="F69" s="6"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="26" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="13"/>
@@ -2161,8 +2158,8 @@
       <c r="G70" s="21"/>
       <c r="H70" s="25"/>
     </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="26" t="s">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="13"/>
@@ -2172,8 +2169,8 @@
       <c r="G71" s="21"/>
       <c r="H71" s="25"/>
     </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="26" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="13"/>
@@ -2182,8 +2179,8 @@
       <c r="F72" s="6"/>
       <c r="G72" s="19"/>
     </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="26" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="13"/>
@@ -2192,8 +2189,8 @@
       <c r="F73" s="6"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="26" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="13"/>
@@ -2203,8 +2200,8 @@
       <c r="G74" s="21"/>
       <c r="H74" s="25"/>
     </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="26" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="13"/>
@@ -2213,8 +2210,8 @@
       <c r="F75" s="6"/>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="26" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="13"/>
@@ -2223,8 +2220,8 @@
       <c r="F76" s="6"/>
       <c r="G76" s="19"/>
     </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="26" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="13"/>
@@ -2233,8 +2230,8 @@
       <c r="F77" s="6"/>
       <c r="G77" s="19"/>
     </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="26" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="13"/>
@@ -2244,8 +2241,8 @@
       <c r="G78" s="21"/>
       <c r="H78" s="25"/>
     </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="26" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="13"/>
@@ -2254,8 +2251,8 @@
       <c r="F79" s="6"/>
       <c r="G79" s="19"/>
     </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="26" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="13"/>
@@ -2264,8 +2261,8 @@
       <c r="F80" s="6"/>
       <c r="G80" s="19"/>
     </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="26" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="13"/>
@@ -2275,8 +2272,8 @@
       <c r="G81" s="21"/>
       <c r="H81" s="25"/>
     </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="26" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="13"/>
@@ -2285,8 +2282,8 @@
       <c r="F82" s="6"/>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="26" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="13"/>
@@ -2296,8 +2293,8 @@
       <c r="G83" s="21"/>
       <c r="H83" s="25"/>
     </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="26" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="13"/>
@@ -2306,8 +2303,8 @@
       <c r="F84" s="6"/>
       <c r="G84" s="19"/>
     </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="26" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="13"/>
@@ -2316,8 +2313,8 @@
       <c r="F85" s="6"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="26" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="13"/>
@@ -2326,38 +2323,45 @@
       <c r="F86" s="6"/>
       <c r="G86" s="19"/>
     </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="26" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="25"/>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="26" t="s">
+      <c r="C88" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="26" t="s">
-        <v>87</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="5"/>
@@ -2365,9 +2369,9 @@
       <c r="F89" s="6"/>
       <c r="G89" s="19"/>
     </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="26" t="s">
-        <v>88</v>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="5"/>
@@ -2375,9 +2379,9 @@
       <c r="F90" s="6"/>
       <c r="G90" s="19"/>
     </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="26" t="s">
-        <v>94</v>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="5"/>
@@ -2385,27 +2389,27 @@
       <c r="F91" s="6"/>
       <c r="G91" s="19"/>
     </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="26" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G92" s="21"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="5"/>
@@ -2413,9 +2417,9 @@
       <c r="F93" s="6"/>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="26" t="s">
-        <v>97</v>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="5"/>
@@ -2423,9 +2427,9 @@
       <c r="F94" s="6"/>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="26" t="s">
-        <v>98</v>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="5"/>
@@ -2433,9 +2437,9 @@
       <c r="F95" s="6"/>
       <c r="G95" s="19"/>
     </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="26" t="s">
-        <v>99</v>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="5"/>
@@ -2443,9 +2447,9 @@
       <c r="F96" s="6"/>
       <c r="G96" s="19"/>
     </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="26" t="s">
-        <v>100</v>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="5"/>
@@ -2453,9 +2457,9 @@
       <c r="F97" s="6"/>
       <c r="G97" s="19"/>
     </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="26" t="s">
-        <v>101</v>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="5"/>
@@ -2463,45 +2467,45 @@
       <c r="F98" s="6"/>
       <c r="G98" s="19"/>
     </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="26" t="s">
-        <v>102</v>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="26" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100" s="21"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G100" s="21"/>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="5"/>
@@ -2510,27 +2514,27 @@
       <c r="G101" s="21"/>
       <c r="H101" s="25"/>
     </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="26" t="s">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G102" s="21"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G102" s="21"/>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="26" t="s">
-        <v>104</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="5"/>
@@ -2538,9 +2542,9 @@
       <c r="F103" s="6"/>
       <c r="G103" s="19"/>
     </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="26" t="s">
-        <v>105</v>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="5"/>
@@ -2549,9 +2553,9 @@
       <c r="G104" s="21"/>
       <c r="H104" s="25"/>
     </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="26" t="s">
-        <v>106</v>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="5"/>
@@ -2559,9 +2563,9 @@
       <c r="F105" s="6"/>
       <c r="G105" s="19"/>
     </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="26" t="s">
-        <v>107</v>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="5"/>
@@ -2569,9 +2573,9 @@
       <c r="F106" s="6"/>
       <c r="G106" s="19"/>
     </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="26" t="s">
-        <v>108</v>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="5"/>
@@ -2579,7 +2583,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="19"/>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
@@ -2587,7 +2591,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="19"/>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
@@ -2595,7 +2599,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="19"/>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
@@ -2603,7 +2607,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="19"/>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
@@ -2611,7 +2615,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="19"/>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
@@ -2619,7 +2623,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="19"/>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
@@ -2627,7 +2631,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
@@ -2635,7 +2639,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="19"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
@@ -2643,7 +2647,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="19"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
@@ -2651,7 +2655,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="19"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -2659,7 +2663,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="19"/>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -2667,7 +2671,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="19"/>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -2675,7 +2679,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="19"/>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -2683,7 +2687,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="19"/>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -2691,7 +2695,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="19"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -2699,7 +2703,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="19"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -2707,7 +2711,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="19"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -2715,7 +2719,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="19"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -2723,7 +2727,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="19"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -2731,7 +2735,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -2739,7 +2743,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="19"/>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -2747,7 +2751,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="19"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -2755,7 +2759,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="19"/>
     </row>
-    <row r="130" spans="2:7" ht="16.5" thickBot="1">
+    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE514DE-5E7A-441C-9340-4523F1B28F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498F0E3C-FFBA-41B0-AA99-8C32E521DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
   <si>
     <t>Cântare</t>
   </si>
@@ -710,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +726,13 @@
     </font>
     <font>
       <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1016,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,6 +1083,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,23 +1369,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="13.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1408,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1418,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1428,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1438,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1448,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1458,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1468,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1486,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1496,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1506,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1522,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1532,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1540,7 +1550,7 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1560,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1578,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1588,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1588,7 +1598,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1598,7 +1608,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1608,7 +1618,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1628,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +1639,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1657,7 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1667,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1667,7 +1677,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1685,7 +1695,7 @@
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1705,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1705,7 +1715,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1723,7 +1733,7 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1733,7 +1743,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1743,7 +1753,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
@@ -1753,7 +1763,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
         <v>31</v>
       </c>
@@ -1763,7 +1773,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
         <v>32</v>
       </c>
@@ -1773,7 +1783,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="18" t="s">
         <v>33</v>
       </c>
@@ -1783,7 +1793,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
@@ -1793,7 +1803,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1813,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
@@ -1813,7 +1823,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
@@ -1823,7 +1833,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
@@ -1833,7 +1843,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
@@ -1843,7 +1853,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
         <v>40</v>
       </c>
@@ -1853,7 +1863,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
         <v>41</v>
       </c>
@@ -1863,7 +1873,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
@@ -1873,7 +1883,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
@@ -1891,7 +1901,7 @@
       </c>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1911,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>45</v>
       </c>
@@ -1911,7 +1921,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="18" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1931,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
         <v>47</v>
       </c>
@@ -1931,7 +1941,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
         <v>48</v>
       </c>
@@ -1941,7 +1951,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="18" t="s">
         <v>49</v>
       </c>
@@ -1951,7 +1961,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
         <v>50</v>
       </c>
@@ -1961,7 +1971,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="18" t="s">
         <v>51</v>
       </c>
@@ -1971,7 +1981,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
         <v>52</v>
       </c>
@@ -1989,7 +1999,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="18" t="s">
         <v>53</v>
       </c>
@@ -1999,7 +2009,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
@@ -2009,7 +2019,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="18" t="s">
         <v>55</v>
       </c>
@@ -2027,7 +2037,7 @@
       </c>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="18" t="s">
         <v>56</v>
       </c>
@@ -2037,7 +2047,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="18" t="s">
         <v>57</v>
       </c>
@@ -2047,7 +2057,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
         <v>58</v>
       </c>
@@ -2057,7 +2067,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="18" t="s">
         <v>59</v>
       </c>
@@ -2067,7 +2077,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="18" t="s">
         <v>60</v>
       </c>
@@ -2077,7 +2087,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="18" t="s">
         <v>61</v>
       </c>
@@ -2087,7 +2097,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="18" t="s">
         <v>62</v>
       </c>
@@ -2097,7 +2107,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="19"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="18" t="s">
         <v>63</v>
       </c>
@@ -2107,7 +2117,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="18" t="s">
         <v>64</v>
       </c>
@@ -2117,7 +2127,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="18" t="s">
         <v>65</v>
       </c>
@@ -2127,7 +2137,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="18" t="s">
         <v>66</v>
       </c>
@@ -2137,7 +2147,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="18" t="s">
         <v>67</v>
       </c>
@@ -2147,29 +2157,43 @@
       <c r="F69" s="6"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
+      <c r="C70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="G70" s="21"/>
-      <c r="H70" s="25"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
+      <c r="C71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="G71" s="21"/>
-      <c r="H71" s="25"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="18" t="s">
         <v>70</v>
       </c>
@@ -2179,7 +2203,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="19"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="18" t="s">
         <v>71</v>
       </c>
@@ -2189,18 +2213,25 @@
       <c r="F73" s="6"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
+      <c r="C74" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="G74" s="21"/>
-      <c r="H74" s="25"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="18" t="s">
         <v>73</v>
       </c>
@@ -2210,7 +2241,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="18" t="s">
         <v>74</v>
       </c>
@@ -2220,7 +2251,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="19"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="18" t="s">
         <v>75</v>
       </c>
@@ -2230,18 +2261,25 @@
       <c r="F77" s="6"/>
       <c r="G77" s="19"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
+      <c r="C78" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="G78" s="21"/>
-      <c r="H78" s="25"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="18" t="s">
         <v>77</v>
       </c>
@@ -2251,7 +2289,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="19"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="18" t="s">
         <v>78</v>
       </c>
@@ -2261,7 +2299,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="19"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="18" t="s">
         <v>79</v>
       </c>
@@ -2272,7 +2310,7 @@
       <c r="G81" s="21"/>
       <c r="H81" s="25"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="18" t="s">
         <v>80</v>
       </c>
@@ -2282,18 +2320,23 @@
       <c r="F82" s="6"/>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="C83" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="F83" s="6"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="25"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="18" t="s">
         <v>82</v>
       </c>
@@ -2303,7 +2346,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="19"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" s="18" t="s">
         <v>83</v>
       </c>
@@ -2313,7 +2356,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="18" t="s">
         <v>84</v>
       </c>
@@ -2323,7 +2366,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="19"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" s="18" t="s">
         <v>112</v>
       </c>
@@ -2341,7 +2384,7 @@
       </c>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="18" t="s">
         <v>85</v>
       </c>
@@ -2359,7 +2402,7 @@
       </c>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" s="18" t="s">
         <v>86</v>
       </c>
@@ -2369,7 +2412,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="19"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="18" t="s">
         <v>87</v>
       </c>
@@ -2379,7 +2422,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="19"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" s="18" t="s">
         <v>93</v>
       </c>
@@ -2389,7 +2432,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="19"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="18" t="s">
         <v>94</v>
       </c>
@@ -2407,7 +2450,7 @@
       </c>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" s="18" t="s">
         <v>95</v>
       </c>
@@ -2417,7 +2460,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" s="18" t="s">
         <v>96</v>
       </c>
@@ -2427,7 +2470,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" s="18" t="s">
         <v>97</v>
       </c>
@@ -2437,7 +2480,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="19"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" s="18" t="s">
         <v>98</v>
       </c>
@@ -2447,7 +2490,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="19"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" s="18" t="s">
         <v>99</v>
       </c>
@@ -2457,7 +2500,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="19"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" s="18" t="s">
         <v>100</v>
       </c>
@@ -2467,7 +2510,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="19"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" s="18" t="s">
         <v>101</v>
       </c>
@@ -2485,7 +2528,7 @@
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" s="18" t="s">
         <v>110</v>
       </c>
@@ -2503,7 +2546,7 @@
       </c>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="18" t="s">
         <v>111</v>
       </c>
@@ -2514,7 +2557,7 @@
       <c r="G101" s="21"/>
       <c r="H101" s="25"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" s="18" t="s">
         <v>102</v>
       </c>
@@ -2532,7 +2575,7 @@
       </c>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" s="18" t="s">
         <v>103</v>
       </c>
@@ -2542,7 +2585,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="19"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" s="18" t="s">
         <v>104</v>
       </c>
@@ -2553,7 +2596,7 @@
       <c r="G104" s="21"/>
       <c r="H104" s="25"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" s="18" t="s">
         <v>105</v>
       </c>
@@ -2563,7 +2606,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="19"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" s="18" t="s">
         <v>106</v>
       </c>
@@ -2573,7 +2616,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="19"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" s="18" t="s">
         <v>107</v>
       </c>
@@ -2583,7 +2626,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="19"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
@@ -2591,7 +2634,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="19"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
@@ -2599,7 +2642,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="19"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
@@ -2607,7 +2650,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="19"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
@@ -2615,7 +2658,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="19"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
@@ -2623,7 +2666,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="19"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
@@ -2631,7 +2674,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
@@ -2639,7 +2682,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="19"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
@@ -2647,7 +2690,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="19"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
@@ -2655,7 +2698,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="19"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -2663,7 +2706,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="19"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -2671,7 +2714,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="19"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -2679,7 +2722,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="19"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -2687,7 +2730,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="19"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -2695,7 +2738,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="19"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -2703,7 +2746,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="19"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -2711,7 +2754,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="19"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -2719,7 +2762,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="19"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -2727,7 +2770,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="19"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -2735,7 +2778,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -2743,7 +2786,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="19"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -2751,7 +2794,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="19"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -2759,7 +2802,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="19"/>
     </row>
-    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498F0E3C-FFBA-41B0-AA99-8C32E521DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80DC193-48A7-40C5-9D19-F90EA8B83D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
   <si>
     <t>Cântare</t>
   </si>
@@ -652,9 +652,6 @@
   </si>
   <si>
     <t>Iesire 2024</t>
-  </si>
-  <si>
-    <t>De cerut nenea Nicu</t>
   </si>
   <si>
     <r>
@@ -738,7 +735,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,12 +754,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1023,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,12 +1069,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,25 +1352,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H130"/>
+  <dimension ref="B1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="1"/>
-    <col min="7" max="7" width="13.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1796875" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1404,11 +1388,8 @@
       <c r="G2" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1399,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1409,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1419,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1448,7 +1429,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1439,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1449,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1467,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1477,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1487,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1522,7 +1503,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1532,7 +1513,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1550,7 +1531,7 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1560,7 +1541,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1559,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1588,7 +1569,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1598,7 +1579,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1608,7 +1589,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1599,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1628,18 +1609,25 @@
       <c r="F21" s="6"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="G22" s="21"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1645,7 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1667,7 +1655,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1677,7 +1665,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1695,7 +1683,7 @@
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1705,7 +1693,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1715,7 +1703,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1733,7 +1721,7 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1731,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1753,7 +1741,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1751,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>31</v>
       </c>
@@ -1773,7 +1761,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>32</v>
       </c>
@@ -1783,7 +1771,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>33</v>
       </c>
@@ -1793,7 +1781,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
@@ -1803,7 +1791,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
@@ -1813,7 +1801,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
@@ -1823,7 +1811,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1821,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
@@ -1843,7 +1831,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1841,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>40</v>
       </c>
@@ -1863,7 +1851,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>41</v>
       </c>
@@ -1873,7 +1861,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
@@ -1883,7 +1871,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
@@ -1901,7 +1889,7 @@
       </c>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>44</v>
       </c>
@@ -1911,7 +1899,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>45</v>
       </c>
@@ -1921,7 +1909,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>46</v>
       </c>
@@ -1931,7 +1919,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>47</v>
       </c>
@@ -1941,7 +1929,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>48</v>
       </c>
@@ -1951,7 +1939,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>49</v>
       </c>
@@ -1961,7 +1949,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>50</v>
       </c>
@@ -1971,7 +1959,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>51</v>
       </c>
@@ -1981,7 +1969,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>52</v>
       </c>
@@ -1999,7 +1987,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>53</v>
       </c>
@@ -2009,7 +1997,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
@@ -2019,7 +2007,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>55</v>
       </c>
@@ -2037,7 +2025,7 @@
       </c>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>56</v>
       </c>
@@ -2047,7 +2035,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>57</v>
       </c>
@@ -2057,7 +2045,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>58</v>
       </c>
@@ -2067,7 +2055,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>59</v>
       </c>
@@ -2077,7 +2065,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>60</v>
       </c>
@@ -2087,7 +2075,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>61</v>
       </c>
@@ -2097,7 +2085,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>62</v>
       </c>
@@ -2107,7 +2095,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="19"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
         <v>63</v>
       </c>
@@ -2117,7 +2105,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>64</v>
       </c>
@@ -2127,7 +2115,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
         <v>65</v>
       </c>
@@ -2137,7 +2125,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>66</v>
       </c>
@@ -2147,7 +2135,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>67</v>
       </c>
@@ -2157,7 +2145,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>68</v>
       </c>
@@ -2175,7 +2163,7 @@
       </c>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>69</v>
       </c>
@@ -2193,7 +2181,7 @@
       </c>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2191,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="19"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>71</v>
       </c>
@@ -2213,7 +2201,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
@@ -2231,7 +2219,7 @@
       </c>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>73</v>
       </c>
@@ -2241,7 +2229,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>74</v>
       </c>
@@ -2251,7 +2239,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>75</v>
       </c>
@@ -2261,25 +2249,25 @@
       <c r="F77" s="6"/>
       <c r="G77" s="19"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78" s="26" t="s">
+      <c r="C78" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="24" t="s">
         <v>92</v>
       </c>
       <c r="G78" s="21"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>77</v>
       </c>
@@ -2289,7 +2277,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="19"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>78</v>
       </c>
@@ -2299,28 +2287,43 @@
       <c r="F80" s="6"/>
       <c r="G80" s="19"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
+      <c r="C81" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G81" s="21"/>
-      <c r="H81" s="25"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
+      <c r="C82" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
         <v>81</v>
       </c>
@@ -2336,7 +2339,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
         <v>82</v>
       </c>
@@ -2346,7 +2349,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="19"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
         <v>83</v>
       </c>
@@ -2356,7 +2359,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>84</v>
       </c>
@@ -2366,9 +2369,9 @@
       <c r="F86" s="6"/>
       <c r="G86" s="19"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>92</v>
@@ -2384,7 +2387,7 @@
       </c>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
         <v>85</v>
       </c>
@@ -2402,7 +2405,7 @@
       </c>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="18" t="s">
         <v>86</v>
       </c>
@@ -2412,7 +2415,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="19"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
         <v>87</v>
       </c>
@@ -2422,7 +2425,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="19"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
         <v>93</v>
       </c>
@@ -2432,7 +2435,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="19"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
         <v>94</v>
       </c>
@@ -2450,7 +2453,7 @@
       </c>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
         <v>95</v>
       </c>
@@ -2460,7 +2463,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
         <v>96</v>
       </c>
@@ -2470,7 +2473,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
         <v>97</v>
       </c>
@@ -2480,7 +2483,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="19"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="18" t="s">
         <v>98</v>
       </c>
@@ -2490,7 +2493,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="19"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
         <v>99</v>
       </c>
@@ -2500,7 +2503,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="19"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="18" t="s">
         <v>100</v>
       </c>
@@ -2510,7 +2513,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="19"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="18" t="s">
         <v>101</v>
       </c>
@@ -2528,36 +2531,35 @@
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100" s="21"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G100" s="21"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B101" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="6"/>
       <c r="G101" s="21"/>
-      <c r="H101" s="25"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
         <v>102</v>
       </c>
@@ -2575,7 +2577,7 @@
       </c>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="18" t="s">
         <v>103</v>
       </c>
@@ -2585,7 +2587,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="19"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
         <v>104</v>
       </c>
@@ -2594,9 +2596,8 @@
       <c r="E104" s="5"/>
       <c r="F104" s="6"/>
       <c r="G104" s="21"/>
-      <c r="H104" s="25"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
         <v>105</v>
       </c>
@@ -2606,7 +2607,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="19"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
         <v>106</v>
       </c>
@@ -2616,7 +2617,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="19"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
         <v>107</v>
       </c>
@@ -2626,7 +2627,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="19"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
@@ -2634,7 +2635,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="19"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
@@ -2642,7 +2643,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="19"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
@@ -2650,7 +2651,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="19"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
@@ -2658,7 +2659,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="19"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
@@ -2666,7 +2667,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="19"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
@@ -2674,7 +2675,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
@@ -2682,7 +2683,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="19"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
@@ -2690,7 +2691,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="19"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
@@ -2698,7 +2699,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="19"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -2706,7 +2707,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="19"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -2714,7 +2715,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="19"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -2722,7 +2723,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="19"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -2730,7 +2731,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="19"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -2738,7 +2739,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="19"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -2746,7 +2747,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="19"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -2754,7 +2755,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="19"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -2762,7 +2763,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="19"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -2770,7 +2771,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="19"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -2778,7 +2779,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -2786,7 +2787,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="19"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -2794,7 +2795,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="19"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -2802,7 +2803,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="19"/>
     </row>
-    <row r="130" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80DC193-48A7-40C5-9D19-F90EA8B83D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557EE9E-9226-43F5-A0BB-FFB22ED294C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
   <si>
     <t>Cântare</t>
   </si>
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2553,10 +2553,16 @@
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C101" s="13"/>
+      <c r="C101" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="6"/>
+      <c r="E101" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G101" s="21"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557EE9E-9226-43F5-A0BB-FFB22ED294C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1683F8B-F5D3-49E6-BCF1-226EC282028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
   <si>
     <t>Cântare</t>
   </si>
@@ -707,7 +708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,13 +724,6 @@
     </font>
     <font>
       <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1014,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,9 +1063,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,6 +1078,809 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1734222159"/>
+        <c:axId val="1734232239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1734222159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1734232239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1734232239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1734222159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D0329119-6C9C-4F53-95E4-AEF4239F74BE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="61" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8660984" cy="6287541"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38ABFC4D-115C-5BEA-B3CA-EA39F34AD69A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1354,22 +2148,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="147" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +2183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +2193,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1409,17 +2203,25 @@
       <c r="F4" s="6"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +2231,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1439,17 +2241,25 @@
       <c r="F7" s="6"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +2277,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +2287,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +2297,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1503,7 +2313,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +2323,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +2341,7 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1541,7 +2351,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1559,7 +2369,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1569,7 +2379,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1579,7 +2389,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +2399,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1599,7 +2409,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +2419,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
@@ -1627,7 +2437,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1645,7 +2455,7 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1655,7 +2465,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +2475,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1683,7 +2493,7 @@
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1693,7 +2503,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1703,7 +2513,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1721,7 +2531,7 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1731,7 +2541,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +2551,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +2561,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
         <v>31</v>
       </c>
@@ -1761,7 +2571,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
         <v>32</v>
       </c>
@@ -1771,7 +2581,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="18" t="s">
         <v>33</v>
       </c>
@@ -1781,7 +2591,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
@@ -1791,7 +2601,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
@@ -1801,7 +2611,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
@@ -1811,7 +2621,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +2631,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +2641,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +2651,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
         <v>40</v>
       </c>
@@ -1851,7 +2661,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
         <v>41</v>
       </c>
@@ -1861,7 +2671,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
@@ -1871,7 +2681,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
@@ -1889,7 +2699,7 @@
       </c>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
         <v>44</v>
       </c>
@@ -1899,7 +2709,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>45</v>
       </c>
@@ -1909,7 +2719,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="18" t="s">
         <v>46</v>
       </c>
@@ -1919,7 +2729,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
         <v>47</v>
       </c>
@@ -1929,7 +2739,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
         <v>48</v>
       </c>
@@ -1939,7 +2749,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="18" t="s">
         <v>49</v>
       </c>
@@ -1949,7 +2759,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
         <v>50</v>
       </c>
@@ -1959,7 +2769,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="18" t="s">
         <v>51</v>
       </c>
@@ -1969,7 +2779,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
         <v>52</v>
       </c>
@@ -1987,7 +2797,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="18" t="s">
         <v>53</v>
       </c>
@@ -1997,7 +2807,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
@@ -2007,7 +2817,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="18" t="s">
         <v>55</v>
       </c>
@@ -2025,7 +2835,7 @@
       </c>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="18" t="s">
         <v>56</v>
       </c>
@@ -2035,7 +2845,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="18" t="s">
         <v>57</v>
       </c>
@@ -2045,7 +2855,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
         <v>58</v>
       </c>
@@ -2055,7 +2865,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="18" t="s">
         <v>59</v>
       </c>
@@ -2065,7 +2875,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="18" t="s">
         <v>60</v>
       </c>
@@ -2075,7 +2885,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="18" t="s">
         <v>61</v>
       </c>
@@ -2085,7 +2895,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="18" t="s">
         <v>62</v>
       </c>
@@ -2095,7 +2905,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="19"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="18" t="s">
         <v>63</v>
       </c>
@@ -2105,7 +2915,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="18" t="s">
         <v>64</v>
       </c>
@@ -2115,7 +2925,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="18" t="s">
         <v>65</v>
       </c>
@@ -2125,7 +2935,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="18" t="s">
         <v>66</v>
       </c>
@@ -2135,7 +2945,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="18" t="s">
         <v>67</v>
       </c>
@@ -2145,7 +2955,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="18" t="s">
         <v>68</v>
       </c>
@@ -2163,7 +2973,7 @@
       </c>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="18" t="s">
         <v>69</v>
       </c>
@@ -2181,7 +2991,7 @@
       </c>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="18" t="s">
         <v>70</v>
       </c>
@@ -2191,7 +3001,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="19"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="18" t="s">
         <v>71</v>
       </c>
@@ -2201,7 +3011,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
@@ -2219,7 +3029,7 @@
       </c>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="18" t="s">
         <v>73</v>
       </c>
@@ -2229,7 +3039,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="18" t="s">
         <v>74</v>
       </c>
@@ -2239,7 +3049,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="18" t="s">
         <v>75</v>
       </c>
@@ -2249,25 +3059,25 @@
       <c r="F77" s="6"/>
       <c r="G77" s="19"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78" s="24" t="s">
+      <c r="C78" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>92</v>
       </c>
       <c r="G78" s="21"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="18" t="s">
         <v>77</v>
       </c>
@@ -2277,7 +3087,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="19"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="18" t="s">
         <v>78</v>
       </c>
@@ -2287,7 +3097,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="19"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81" s="18" t="s">
         <v>79</v>
       </c>
@@ -2305,7 +3115,7 @@
       </c>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82" s="18" t="s">
         <v>80</v>
       </c>
@@ -2323,7 +3133,7 @@
       </c>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="18" t="s">
         <v>81</v>
       </c>
@@ -2339,7 +3149,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="18" t="s">
         <v>82</v>
       </c>
@@ -2349,7 +3159,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="19"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85" s="18" t="s">
         <v>83</v>
       </c>
@@ -2359,7 +3169,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="18" t="s">
         <v>84</v>
       </c>
@@ -2369,7 +3179,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="19"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87" s="18" t="s">
         <v>111</v>
       </c>
@@ -2387,7 +3197,7 @@
       </c>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="18" t="s">
         <v>85</v>
       </c>
@@ -2405,7 +3215,7 @@
       </c>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89" s="18" t="s">
         <v>86</v>
       </c>
@@ -2415,7 +3225,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="19"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="18" t="s">
         <v>87</v>
       </c>
@@ -2425,7 +3235,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="19"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="18" t="s">
         <v>93</v>
       </c>
@@ -2435,7 +3245,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="19"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="18" t="s">
         <v>94</v>
       </c>
@@ -2453,7 +3263,7 @@
       </c>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="18" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +3273,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94" s="18" t="s">
         <v>96</v>
       </c>
@@ -2473,7 +3283,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="18" t="s">
         <v>97</v>
       </c>
@@ -2483,7 +3293,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="19"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="18" t="s">
         <v>98</v>
       </c>
@@ -2493,7 +3303,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="19"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" s="18" t="s">
         <v>99</v>
       </c>
@@ -2503,7 +3313,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="19"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98" s="18" t="s">
         <v>100</v>
       </c>
@@ -2513,7 +3323,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="19"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99" s="18" t="s">
         <v>101</v>
       </c>
@@ -2531,7 +3341,7 @@
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
@@ -2549,7 +3359,7 @@
       </c>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
@@ -2565,7 +3375,7 @@
       </c>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B102" s="18" t="s">
         <v>102</v>
       </c>
@@ -2583,7 +3393,7 @@
       </c>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B103" s="18" t="s">
         <v>103</v>
       </c>
@@ -2593,7 +3403,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="19"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B104" s="18" t="s">
         <v>104</v>
       </c>
@@ -2603,7 +3413,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B105" s="18" t="s">
         <v>105</v>
       </c>
@@ -2613,7 +3423,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="19"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B106" s="18" t="s">
         <v>106</v>
       </c>
@@ -2623,7 +3433,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="19"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B107" s="18" t="s">
         <v>107</v>
       </c>
@@ -2633,7 +3443,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="19"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
@@ -2641,7 +3451,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="19"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
@@ -2649,7 +3459,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="19"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
@@ -2657,7 +3467,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="19"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
@@ -2665,7 +3475,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="19"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
@@ -2673,7 +3483,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="19"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
@@ -2681,7 +3491,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
@@ -2689,7 +3499,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="19"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
@@ -2697,7 +3507,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="19"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
@@ -2705,7 +3515,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="19"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -2713,7 +3523,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="19"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -2721,7 +3531,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="19"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -2729,7 +3539,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="19"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -2737,7 +3547,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="19"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -2745,7 +3555,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="19"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -2753,7 +3563,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="19"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -2761,7 +3571,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="19"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -2769,7 +3579,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="19"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -2777,7 +3587,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="19"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -2785,7 +3595,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -2793,7 +3603,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="19"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -2801,7 +3611,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="19"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -2809,7 +3619,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="19"/>
     </row>
-    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1683F8B-F5D3-49E6-BCF1-226EC282028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3092F8-E444-4C8B-BB49-3AEF0A796BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Main" sheetId="1" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="112">
   <si>
     <t>Cântare</t>
   </si>
@@ -211,9 +210,6 @@
     <t xml:space="preserve">60.    Nu-i nimeni ca Tine Isus </t>
   </si>
   <si>
-    <t xml:space="preserve">61.    Ce mult te doresc o Isuse </t>
-  </si>
-  <si>
     <t xml:space="preserve">62.    Sa fii ca Isus </t>
   </si>
   <si>
@@ -702,6 +698,29 @@
   </si>
   <si>
     <t>85.    Cu bucurie vom zbura</t>
+  </si>
+  <si>
+    <r>
+      <t>106.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Dragostea</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1078,809 +1097,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1734222159"/>
-        <c:axId val="1734232239"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1734222159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1734232239"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1734232239"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1734222159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D0329119-6C9C-4F53-95E4-AEF4239F74BE}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="61" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660984" cy="6287541"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38ABFC4D-115C-5BEA-B3CA-EA39F34AD69A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2148,42 +1364,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="147" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="1"/>
-    <col min="7" max="7" width="11.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="G2" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
@@ -2193,7 +1410,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -2203,25 +1420,25 @@
       <c r="F4" s="6"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -2231,7 +1448,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -2241,43 +1458,43 @@
       <c r="F7" s="6"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +1504,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
@@ -2297,23 +1514,23 @@
       <c r="F11" s="6"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
@@ -2323,25 +1540,25 @@
       <c r="F13" s="6"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
@@ -2351,25 +1568,25 @@
       <c r="F15" s="6"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
@@ -2379,7 +1596,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +1606,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2399,7 +1616,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
@@ -2409,7 +1626,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
@@ -2419,43 +1636,43 @@
       <c r="F21" s="6"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
@@ -2465,7 +1682,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>23</v>
       </c>
@@ -2475,25 +1692,25 @@
       <c r="F25" s="6"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>25</v>
       </c>
@@ -2503,7 +1720,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
@@ -2513,25 +1730,25 @@
       <c r="F28" s="6"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>28</v>
       </c>
@@ -2541,7 +1758,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>29</v>
       </c>
@@ -2551,7 +1768,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
@@ -2561,17 +1778,25 @@
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>32</v>
       </c>
@@ -2581,7 +1806,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>33</v>
       </c>
@@ -2591,17 +1816,16 @@
       <c r="F35" s="6"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
@@ -2611,7 +1835,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
@@ -2621,7 +1845,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
@@ -2631,7 +1855,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
@@ -2641,7 +1865,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
@@ -2651,7 +1875,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>40</v>
       </c>
@@ -2661,7 +1885,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>41</v>
       </c>
@@ -2671,7 +1895,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
@@ -2681,25 +1905,25 @@
       <c r="F44" s="6"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>44</v>
       </c>
@@ -2709,7 +1933,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>45</v>
       </c>
@@ -2719,7 +1943,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>46</v>
       </c>
@@ -2729,7 +1953,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>47</v>
       </c>
@@ -2739,7 +1963,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>48</v>
       </c>
@@ -2749,7 +1973,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>49</v>
       </c>
@@ -2759,17 +1983,25 @@
       <c r="F51" s="6"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
+      <c r="C52" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>51</v>
       </c>
@@ -2779,25 +2011,25 @@
       <c r="F53" s="6"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>53</v>
       </c>
@@ -2807,35 +2039,43 @@
       <c r="F55" s="6"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
+      <c r="C56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>56</v>
       </c>
@@ -2845,7 +2085,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>57</v>
       </c>
@@ -2855,7 +2095,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>58</v>
       </c>
@@ -2865,7 +2105,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>59</v>
       </c>
@@ -2875,7 +2115,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>60</v>
       </c>
@@ -2885,9 +2125,9 @@
       <c r="F62" s="6"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="5"/>
@@ -2895,9 +2135,9 @@
       <c r="F63" s="6"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="5"/>
@@ -2905,9 +2145,9 @@
       <c r="F64" s="6"/>
       <c r="G64" s="19"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="5"/>
@@ -2915,9 +2155,9 @@
       <c r="F65" s="6"/>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="5"/>
@@ -2925,9 +2165,9 @@
       <c r="F66" s="6"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="5"/>
@@ -2935,9 +2175,9 @@
       <c r="F67" s="6"/>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="5"/>
@@ -2945,9 +2185,9 @@
       <c r="F68" s="6"/>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="5"/>
@@ -2955,45 +2195,45 @@
       <c r="F69" s="6"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" s="21"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="18" t="s">
+      <c r="C71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" s="21"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="5"/>
@@ -3001,9 +2241,9 @@
       <c r="F72" s="6"/>
       <c r="G72" s="19"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="5"/>
@@ -3011,27 +2251,27 @@
       <c r="F73" s="6"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="5"/>
@@ -3039,9 +2279,9 @@
       <c r="F75" s="6"/>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="5"/>
@@ -3049,9 +2289,9 @@
       <c r="F76" s="6"/>
       <c r="G76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="5"/>
@@ -3059,27 +2299,27 @@
       <c r="F77" s="6"/>
       <c r="G77" s="19"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" s="21"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="5"/>
@@ -3087,9 +2327,9 @@
       <c r="F79" s="6"/>
       <c r="G79" s="19"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="5"/>
@@ -3097,61 +2337,61 @@
       <c r="F80" s="6"/>
       <c r="G80" s="19"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="18" t="s">
+      <c r="C82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B83" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="C83" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="5"/>
@@ -3159,9 +2399,9 @@
       <c r="F84" s="6"/>
       <c r="G84" s="19"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="5"/>
@@ -3169,9 +2409,9 @@
       <c r="F85" s="6"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="5"/>
@@ -3179,45 +2419,45 @@
       <c r="F86" s="6"/>
       <c r="G86" s="19"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B89" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="5"/>
@@ -3225,9 +2465,9 @@
       <c r="F89" s="6"/>
       <c r="G89" s="19"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="5"/>
@@ -3235,9 +2475,9 @@
       <c r="F90" s="6"/>
       <c r="G90" s="19"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="5"/>
@@ -3245,27 +2485,27 @@
       <c r="F91" s="6"/>
       <c r="G91" s="19"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" s="21"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="5"/>
@@ -3273,9 +2513,9 @@
       <c r="F93" s="6"/>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="5"/>
@@ -3283,9 +2523,9 @@
       <c r="F94" s="6"/>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="5"/>
@@ -3293,9 +2533,9 @@
       <c r="F95" s="6"/>
       <c r="G95" s="19"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="5"/>
@@ -3303,9 +2543,9 @@
       <c r="F96" s="6"/>
       <c r="G96" s="19"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="5"/>
@@ -3313,9 +2553,9 @@
       <c r="F97" s="6"/>
       <c r="G97" s="19"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="5"/>
@@ -3323,79 +2563,79 @@
       <c r="F98" s="6"/>
       <c r="G98" s="19"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G100" s="21"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G100" s="21"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="C101" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G102" s="21"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G102" s="21"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B103" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="5"/>
@@ -3403,9 +2643,9 @@
       <c r="F103" s="6"/>
       <c r="G103" s="19"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="5"/>
@@ -3413,9 +2653,9 @@
       <c r="F104" s="6"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="5"/>
@@ -3423,9 +2663,9 @@
       <c r="F105" s="6"/>
       <c r="G105" s="19"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="5"/>
@@ -3433,9 +2673,9 @@
       <c r="F106" s="6"/>
       <c r="G106" s="19"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="5"/>
@@ -3443,15 +2683,17 @@
       <c r="F107" s="6"/>
       <c r="G107" s="19"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="19"/>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="6"/>
       <c r="G108" s="19"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
@@ -3459,7 +2701,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="19"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
@@ -3467,7 +2709,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="19"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
@@ -3475,7 +2717,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="19"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
@@ -3483,7 +2725,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="19"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
@@ -3491,7 +2733,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
@@ -3499,7 +2741,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="19"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
@@ -3507,7 +2749,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="19"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
@@ -3515,7 +2757,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="19"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -3523,7 +2765,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="19"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -3531,7 +2773,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="19"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -3539,7 +2781,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="19"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -3547,7 +2789,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="19"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -3555,7 +2797,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="19"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -3563,7 +2805,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="19"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -3571,7 +2813,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="19"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -3579,7 +2821,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="19"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -3587,7 +2829,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="19"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -3595,7 +2837,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -3603,7 +2845,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="19"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -3611,7 +2853,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="19"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -3619,7 +2861,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="19"/>
     </row>
-    <row r="130" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3092F8-E444-4C8B-BB49-3AEF0A796BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F6821-5697-491E-8280-6F78BBF85353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
   <si>
     <t>Cântare</t>
   </si>
@@ -721,6 +721,9 @@
       </rPr>
       <t xml:space="preserve"> Dragostea</t>
     </r>
+  </si>
+  <si>
+    <t>Scanată</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -999,9 +1002,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1014,11 +1015,35 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1027,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,9 +1104,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,25 +1390,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G130"/>
+  <dimension ref="B1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="9.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,11 +1424,14 @@
       <c r="F2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1409,8 +1440,9 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1418,9 +1450,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="23"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1436,9 +1469,10 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="23"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -1446,9 +1480,10 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="23"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1456,9 +1491,10 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="23"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1474,9 +1510,10 @@
       <c r="F8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="23"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1492,9 +1529,10 @@
       <c r="F9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="24"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1502,9 +1540,10 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="23"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1512,9 +1551,10 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="23"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
@@ -1528,9 +1568,10 @@
         <v>91</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="23"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1538,9 +1579,10 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="23"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
@@ -1556,9 +1598,10 @@
       <c r="F14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="23"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1566,9 +1609,10 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="23"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1584,9 +1628,10 @@
       <c r="F16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="24"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1594,9 +1639,10 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="23"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1604,9 +1650,10 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="23"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1614,9 +1661,10 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="23"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
@@ -1624,9 +1672,10 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="23"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1634,9 +1683,10 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="23"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
@@ -1652,9 +1702,10 @@
       <c r="F22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="24"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1670,9 +1721,10 @@
       <c r="F23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="23"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1680,9 +1732,10 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="23"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
         <v>23</v>
       </c>
@@ -1690,9 +1743,10 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="23"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>24</v>
       </c>
@@ -1708,9 +1762,10 @@
       <c r="F26" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="23"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
         <v>25</v>
       </c>
@@ -1718,9 +1773,10 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="23"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1728,9 +1784,10 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="23"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1746,9 +1803,10 @@
       <c r="F29" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="23"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
         <v>28</v>
       </c>
@@ -1756,9 +1814,10 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="23"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
         <v>29</v>
       </c>
@@ -1766,9 +1825,10 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="23"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
@@ -1776,9 +1836,10 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="23"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
         <v>31</v>
       </c>
@@ -1794,9 +1855,10 @@
       <c r="F33" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="23"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
         <v>32</v>
       </c>
@@ -1804,9 +1866,10 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="23"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="18" t="s">
         <v>33</v>
       </c>
@@ -1814,18 +1877,20 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="23"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="5"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="23"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
@@ -1833,9 +1898,10 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="23"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
@@ -1843,9 +1909,10 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="23"/>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
@@ -1853,9 +1920,10 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="23"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
@@ -1863,9 +1931,10 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="23"/>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
@@ -1873,9 +1942,10 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="23"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
         <v>40</v>
       </c>
@@ -1883,9 +1953,10 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="23"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
         <v>41</v>
       </c>
@@ -1893,9 +1964,10 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="23"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
@@ -1903,9 +1975,10 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="23"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
@@ -1921,9 +1994,10 @@
       <c r="F45" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="23"/>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
         <v>44</v>
       </c>
@@ -1931,9 +2005,10 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="23"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>45</v>
       </c>
@@ -1941,9 +2016,10 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="23"/>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="18" t="s">
         <v>46</v>
       </c>
@@ -1951,9 +2027,10 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="23"/>
+      <c r="H48" s="19"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
         <v>47</v>
       </c>
@@ -1961,9 +2038,10 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="23"/>
+      <c r="H49" s="19"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
         <v>48</v>
       </c>
@@ -1971,9 +2049,10 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="23"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="18" t="s">
         <v>49</v>
       </c>
@@ -1981,9 +2060,10 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="23"/>
+      <c r="H51" s="19"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
         <v>50</v>
       </c>
@@ -1999,9 +2079,10 @@
       <c r="F52" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="23"/>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="18" t="s">
         <v>51</v>
       </c>
@@ -2009,9 +2090,10 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="23"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
         <v>52</v>
       </c>
@@ -2027,9 +2109,10 @@
       <c r="F54" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="23"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="18" t="s">
         <v>53</v>
       </c>
@@ -2037,9 +2120,10 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="23"/>
+      <c r="H55" s="19"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
@@ -2055,9 +2139,10 @@
       <c r="F56" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="23"/>
+      <c r="H56" s="19"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="18" t="s">
         <v>55</v>
       </c>
@@ -2073,9 +2158,10 @@
       <c r="F57" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G57" s="21"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="24"/>
+      <c r="H57" s="19"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="18" t="s">
         <v>56</v>
       </c>
@@ -2083,9 +2169,10 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="23"/>
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="18" t="s">
         <v>57</v>
       </c>
@@ -2093,9 +2180,10 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="23"/>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
         <v>58</v>
       </c>
@@ -2103,9 +2191,10 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="23"/>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="18" t="s">
         <v>59</v>
       </c>
@@ -2113,9 +2202,10 @@
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="23"/>
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="18" t="s">
         <v>60</v>
       </c>
@@ -2123,9 +2213,10 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="23"/>
+      <c r="H62" s="19"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="18" t="s">
         <v>60</v>
       </c>
@@ -2133,9 +2224,10 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="23"/>
+      <c r="H63" s="19"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" s="18" t="s">
         <v>61</v>
       </c>
@@ -2143,9 +2235,10 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="23"/>
+      <c r="H64" s="19"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="18" t="s">
         <v>62</v>
       </c>
@@ -2153,9 +2246,10 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="23"/>
+      <c r="H65" s="19"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="18" t="s">
         <v>63</v>
       </c>
@@ -2163,9 +2257,10 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="23"/>
+      <c r="H66" s="19"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="18" t="s">
         <v>64</v>
       </c>
@@ -2173,9 +2268,10 @@
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="23"/>
+      <c r="H67" s="19"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="18" t="s">
         <v>65</v>
       </c>
@@ -2183,9 +2279,10 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="23"/>
+      <c r="H68" s="19"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="18" t="s">
         <v>66</v>
       </c>
@@ -2193,9 +2290,10 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="23"/>
+      <c r="H69" s="19"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="18" t="s">
         <v>67</v>
       </c>
@@ -2211,9 +2309,10 @@
       <c r="F70" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="21"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="24"/>
+      <c r="H70" s="19"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="18" t="s">
         <v>68</v>
       </c>
@@ -2229,9 +2328,10 @@
       <c r="F71" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="21"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="24"/>
+      <c r="H71" s="19"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="18" t="s">
         <v>69</v>
       </c>
@@ -2239,9 +2339,10 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="23"/>
+      <c r="H72" s="19"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="18" t="s">
         <v>70</v>
       </c>
@@ -2249,9 +2350,10 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="23"/>
+      <c r="H73" s="19"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
         <v>71</v>
       </c>
@@ -2267,9 +2369,10 @@
       <c r="F74" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="24"/>
+      <c r="H74" s="19"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="18" t="s">
         <v>72</v>
       </c>
@@ -2277,9 +2380,10 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="23"/>
+      <c r="H75" s="19"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="18" t="s">
         <v>73</v>
       </c>
@@ -2287,9 +2391,10 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="23"/>
+      <c r="H76" s="19"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="18" t="s">
         <v>74</v>
       </c>
@@ -2297,9 +2402,10 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="23"/>
+      <c r="H77" s="19"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="18" t="s">
         <v>75</v>
       </c>
@@ -2315,9 +2421,10 @@
       <c r="F78" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G78" s="21"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="24"/>
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="18" t="s">
         <v>76</v>
       </c>
@@ -2325,9 +2432,10 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="23"/>
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="18" t="s">
         <v>77</v>
       </c>
@@ -2335,9 +2443,10 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="23"/>
+      <c r="H80" s="19"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="18" t="s">
         <v>78</v>
       </c>
@@ -2353,9 +2462,10 @@
       <c r="F81" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="24"/>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="18" t="s">
         <v>79</v>
       </c>
@@ -2371,9 +2481,10 @@
       <c r="F82" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="23"/>
+      <c r="H82" s="19"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="18" t="s">
         <v>80</v>
       </c>
@@ -2387,9 +2498,10 @@
         <v>91</v>
       </c>
       <c r="F83" s="6"/>
-      <c r="G83" s="21"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="24"/>
+      <c r="H83" s="19"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="18" t="s">
         <v>81</v>
       </c>
@@ -2397,9 +2509,10 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="23"/>
+      <c r="H84" s="19"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" s="18" t="s">
         <v>82</v>
       </c>
@@ -2407,9 +2520,10 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="23"/>
+      <c r="H85" s="19"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="18" t="s">
         <v>83</v>
       </c>
@@ -2417,9 +2531,10 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="23"/>
+      <c r="H86" s="19"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" s="18" t="s">
         <v>110</v>
       </c>
@@ -2435,9 +2550,10 @@
       <c r="F87" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G87" s="21"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="24"/>
+      <c r="H87" s="19"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="18" t="s">
         <v>84</v>
       </c>
@@ -2453,9 +2569,10 @@
       <c r="F88" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="24"/>
+      <c r="H88" s="19"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" s="18" t="s">
         <v>85</v>
       </c>
@@ -2463,9 +2580,10 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="23"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="18" t="s">
         <v>86</v>
       </c>
@@ -2473,9 +2591,10 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="23"/>
+      <c r="H90" s="19"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" s="18" t="s">
         <v>92</v>
       </c>
@@ -2483,9 +2602,10 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="23"/>
+      <c r="H91" s="19"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="18" t="s">
         <v>93</v>
       </c>
@@ -2501,9 +2621,10 @@
       <c r="F92" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G92" s="21"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="24"/>
+      <c r="H92" s="19"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" s="18" t="s">
         <v>94</v>
       </c>
@@ -2511,9 +2632,10 @@
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="23"/>
+      <c r="H93" s="19"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" s="18" t="s">
         <v>95</v>
       </c>
@@ -2521,9 +2643,10 @@
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="23"/>
+      <c r="H94" s="19"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" s="18" t="s">
         <v>96</v>
       </c>
@@ -2531,9 +2654,10 @@
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="23"/>
+      <c r="H95" s="19"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" s="18" t="s">
         <v>97</v>
       </c>
@@ -2541,9 +2665,10 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="19"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="23"/>
+      <c r="H96" s="19"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" s="18" t="s">
         <v>98</v>
       </c>
@@ -2551,9 +2676,10 @@
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="23"/>
+      <c r="H97" s="19"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" s="18" t="s">
         <v>99</v>
       </c>
@@ -2561,9 +2687,10 @@
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="19"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="23"/>
+      <c r="H98" s="19"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" s="18" t="s">
         <v>100</v>
       </c>
@@ -2579,9 +2706,10 @@
       <c r="F99" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G99" s="21"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="24"/>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" s="18" t="s">
         <v>108</v>
       </c>
@@ -2597,9 +2725,10 @@
       <c r="F100" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G100" s="21"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="24"/>
+      <c r="H100" s="19"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="18" t="s">
         <v>109</v>
       </c>
@@ -2613,9 +2742,10 @@
       <c r="F101" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G101" s="21"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="24"/>
+      <c r="H101" s="19"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" s="18" t="s">
         <v>101</v>
       </c>
@@ -2631,9 +2761,10 @@
       <c r="F102" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G102" s="21"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="24"/>
+      <c r="H102" s="19"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" s="18" t="s">
         <v>102</v>
       </c>
@@ -2641,9 +2772,10 @@
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="19"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="23"/>
+      <c r="H103" s="19"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" s="18" t="s">
         <v>103</v>
       </c>
@@ -2651,9 +2783,10 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="21"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="24"/>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" s="18" t="s">
         <v>104</v>
       </c>
@@ -2661,9 +2794,10 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="19"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="23"/>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" s="18" t="s">
         <v>105</v>
       </c>
@@ -2671,9 +2805,10 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="19"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="23"/>
+      <c r="H106" s="19"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" s="18" t="s">
         <v>106</v>
       </c>
@@ -2681,9 +2816,10 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="19"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="23"/>
+      <c r="H107" s="19"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" s="18" t="s">
         <v>111</v>
       </c>
@@ -2691,183 +2827,206 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="23"/>
+      <c r="H108" s="19"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="19"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="23"/>
+      <c r="H109" s="19"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="19"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="23"/>
+      <c r="H110" s="19"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="19"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="23"/>
+      <c r="H111" s="19"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="19"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="23"/>
+      <c r="H112" s="19"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="19"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="23"/>
+      <c r="H113" s="19"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="19"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="23"/>
+      <c r="H114" s="19"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="19"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="23"/>
+      <c r="H115" s="19"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="19"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="23"/>
+      <c r="H116" s="19"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="19"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="23"/>
+      <c r="H117" s="19"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="23"/>
+      <c r="H118" s="19"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="19"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="23"/>
+      <c r="H119" s="19"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="19"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="23"/>
+      <c r="H120" s="19"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="19"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="23"/>
+      <c r="H121" s="19"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="19"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="23"/>
+      <c r="H122" s="19"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="19"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="23"/>
+      <c r="H123" s="19"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="19"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="23"/>
+      <c r="H124" s="19"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="19"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="23"/>
+      <c r="H125" s="19"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="19"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="23"/>
+      <c r="H126" s="19"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="19"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="23"/>
+      <c r="H127" s="19"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="19"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="23"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="19"/>
-    </row>
-    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G129" s="23"/>
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="8"/>
-      <c r="G130" s="20"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F6821-5697-491E-8280-6F78BBF85353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7779B5-9F06-4FDB-892B-5949EA779F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t>Cântare</t>
   </si>
@@ -723,7 +723,10 @@
     </r>
   </si>
   <si>
-    <t>Scanată</t>
+    <t>Cântată</t>
+  </si>
+  <si>
+    <t>20.10.24</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1048,11 +1051,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,7 +1227,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H130"/>
+  <dimension ref="B1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1403,820 +1545,1120 @@
     <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.1796875" style="1"/>
     <col min="6" max="6" width="9.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="H3" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
-        <v>5</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="33"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="33"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="6"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="33"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H13" s="33"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="33"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="33"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="33"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="33"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="33"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="33"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H31" s="33"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="33"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H35" s="33"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H36" s="33"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H37" s="33"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H38" s="33"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H39" s="33"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H40" s="33"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H41" s="33"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H42" s="33"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H43" s="33"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="33"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B47" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H47" s="33"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="19"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H48" s="33"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H49" s="33"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H50" s="33"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="19"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H51" s="33"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B53" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="19"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="18" t="s">
+      <c r="C53" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B54" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="19"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" s="18" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B55" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="19"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="18" t="s">
+      <c r="C55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B56" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="18" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B57" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="18" t="s">
+      <c r="C57" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B58" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="19"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="18" t="s">
+      <c r="C58" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="19"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H59" s="33"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="19"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H60" s="33"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="19"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H61" s="33"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="19"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H62" s="33"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="18" t="s">
         <v>60</v>
       </c>
@@ -2225,810 +2667,1175 @@
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="19"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H63" s="33"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="6"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="19"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H64" s="33"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="19"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H65" s="33"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="19"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H66" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="6"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="19"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H67" s="33"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="19"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H68" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="19"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H69" s="33"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B71" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="19"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="18" t="s">
+      <c r="C71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="24"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B72" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="19"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="18" t="s">
+      <c r="C72" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="24"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B73" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="19"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="19"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H73" s="33"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B75" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="19"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B75" s="18" t="s">
+      <c r="C75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B76" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="19"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H76" s="33"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="19"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H77" s="33"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B79" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="19"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B79" s="18" t="s">
+      <c r="C79" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B80" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="19"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B80" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H80" s="33"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B82" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B82" s="18" t="s">
+      <c r="C82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="24"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B83" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="23"/>
-      <c r="H82" s="19"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B83" s="18" t="s">
+      <c r="C83" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B84" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B84" s="18" t="s">
+      <c r="C84" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B85" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B85" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H85" s="33"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="19"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H86" s="33"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B88" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B88" s="18" t="s">
+      <c r="C88" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="24"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B89" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B89" s="18" t="s">
+      <c r="C89" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G89" s="24"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B90" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B90" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H90" s="33"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="19"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H91" s="33"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B93" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" s="24"/>
-      <c r="H92" s="19"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B93" s="18" t="s">
+      <c r="C93" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G93" s="24"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B94" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="19"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B94" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="6"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="19"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H94" s="33"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="6"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="19"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H95" s="33"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="6"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="19"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H96" s="33"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="6"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="19"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H97" s="33"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="19"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H98" s="33"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B100" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G99" s="24"/>
-      <c r="H99" s="19"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B100" s="18" t="s">
+      <c r="C100" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G100" s="24"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B101" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G100" s="24"/>
-      <c r="H100" s="19"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B101" s="18" t="s">
+      <c r="C101" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G101" s="24"/>
+      <c r="H101" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B102" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G101" s="24"/>
-      <c r="H101" s="19"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B102" s="18" t="s">
+      <c r="C102" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G102" s="24"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B103" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G102" s="24"/>
-      <c r="H102" s="19"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B103" s="18" t="s">
+      <c r="C103" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G103" s="24"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B104" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="19"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B104" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="19"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G104" s="23"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B105" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="19"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G105" s="24"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B106" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="6"/>
       <c r="G106" s="23"/>
-      <c r="H106" s="19"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H106" s="33"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B107" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="6"/>
       <c r="G107" s="23"/>
-      <c r="H107" s="19"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H107" s="33"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B108" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="6"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="19"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B109" s="19"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B109" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="6"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="19"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H109" s="33"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
       <c r="G110" s="23"/>
-      <c r="H110" s="19"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H110" s="33"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="19"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H111" s="33"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
       <c r="G112" s="23"/>
-      <c r="H112" s="19"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H112" s="33"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
       <c r="G113" s="23"/>
-      <c r="H113" s="19"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H113" s="33"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="6"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="19"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H114" s="33"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="6"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="19"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H115" s="33"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="G116" s="23"/>
-      <c r="H116" s="19"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H116" s="33"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="19"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H117" s="33"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="G118" s="23"/>
-      <c r="H118" s="19"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H118" s="33"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="G119" s="23"/>
-      <c r="H119" s="19"/>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H119" s="33"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="19"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H120" s="33"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="19"/>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H121" s="33"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="G122" s="23"/>
-      <c r="H122" s="19"/>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H122" s="33"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="G123" s="23"/>
-      <c r="H123" s="19"/>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H123" s="33"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="G124" s="23"/>
-      <c r="H124" s="19"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H124" s="33"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="G125" s="23"/>
-      <c r="H125" s="19"/>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H125" s="33"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="6"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="19"/>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H126" s="33"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="6"/>
       <c r="G127" s="23"/>
-      <c r="H127" s="19"/>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H127" s="33"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="6"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="19"/>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H128" s="33"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="6"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="19"/>
-    </row>
-    <row r="130" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B130" s="20"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="20"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="6"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B130" s="19"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="6"/>
+    </row>
+    <row r="131" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="20"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7779B5-9F06-4FDB-892B-5949EA779F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA89D524-87AB-4EBC-AB99-44566F13F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
   <si>
     <t>Cântare</t>
   </si>
@@ -195,9 +206,6 @@
     <t xml:space="preserve">55.    Când ai strigat </t>
   </si>
   <si>
-    <t xml:space="preserve">56.    Un cântec ca roua </t>
-  </si>
-  <si>
     <t xml:space="preserve">57.    Peste-ntreg pământ </t>
   </si>
   <si>
@@ -727,13 +735,206 @@
   </si>
   <si>
     <t>20.10.24</t>
+  </si>
+  <si>
+    <t>17.11.24</t>
+  </si>
+  <si>
+    <t>01.12.24</t>
+  </si>
+  <si>
+    <r>
+      <t>107.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Când eram pândit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>108.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Poporașul meu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>109.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cum dorește un cerb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>110.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ce bine ecând frații</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>111.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Aleluia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>112.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>113.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>114.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">56.    Harfa lui David </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,7 +955,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +974,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -1170,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,15 +1435,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,6 +1449,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,60 +1745,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M131"/>
+  <dimension ref="B1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="1"/>
-    <col min="6" max="6" width="9.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:13" ht="16.5" thickBot="1">
+      <c r="H2" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" thickBot="1">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="J3" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1594,14 +1814,14 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1610,38 +1830,38 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="33"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="33"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13">
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1650,14 +1870,14 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13">
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1666,62 +1886,62 @@
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13">
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13">
       <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="33"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13">
       <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1730,14 +1950,14 @@
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="33"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13">
       <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1746,36 +1966,36 @@
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="33"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="33"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13">
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1784,38 +2004,38 @@
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13">
       <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13">
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
@@ -1824,38 +2044,38 @@
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13">
       <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="33"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13">
       <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
@@ -1864,14 +2084,14 @@
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13">
       <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
@@ -1880,14 +2100,14 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="33"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13">
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
@@ -1896,14 +2116,14 @@
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13">
       <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
@@ -1912,14 +2132,14 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13">
       <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
@@ -1928,62 +2148,62 @@
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13">
       <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="33"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13">
       <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="23"/>
-      <c r="H24" s="33"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13">
       <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
@@ -1992,14 +2212,14 @@
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="33"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13">
       <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
@@ -2008,38 +2228,38 @@
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="33"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13">
       <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="23"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13">
       <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
@@ -2048,14 +2268,14 @@
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="33"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13">
       <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
@@ -2064,38 +2284,38 @@
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="33"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13">
       <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="23"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="5"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13">
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
@@ -2104,14 +2324,14 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="33"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13">
       <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
@@ -2120,14 +2340,14 @@
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13">
       <c r="B33" s="18" t="s">
         <v>30</v>
       </c>
@@ -2136,40 +2356,38 @@
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="33"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13">
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="23"/>
-      <c r="H34" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="5"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13">
       <c r="B35" s="18" t="s">
         <v>32</v>
       </c>
@@ -2178,14 +2396,14 @@
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="33"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13">
       <c r="B36" s="18" t="s">
         <v>33</v>
       </c>
@@ -2194,14 +2412,14 @@
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="33"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13">
       <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
@@ -2209,14 +2427,14 @@
       <c r="D37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="33"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13">
       <c r="B38" s="18" t="s">
         <v>35</v>
       </c>
@@ -2225,14 +2443,14 @@
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="33"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13">
       <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
@@ -2241,14 +2459,14 @@
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="33"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13">
       <c r="B40" s="18" t="s">
         <v>37</v>
       </c>
@@ -2257,14 +2475,14 @@
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="33"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13">
       <c r="B41" s="18" t="s">
         <v>38</v>
       </c>
@@ -2273,14 +2491,14 @@
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="33"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13">
       <c r="B42" s="18" t="s">
         <v>39</v>
       </c>
@@ -2289,14 +2507,14 @@
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="33"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13">
       <c r="B43" s="18" t="s">
         <v>40</v>
       </c>
@@ -2305,14 +2523,14 @@
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="33"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13">
       <c r="B44" s="18" t="s">
         <v>41</v>
       </c>
@@ -2321,14 +2539,14 @@
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="33"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13">
       <c r="B45" s="18" t="s">
         <v>42</v>
       </c>
@@ -2337,38 +2555,38 @@
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="33"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13">
       <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G46" s="23"/>
-      <c r="H46" s="33"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13">
       <c r="B47" s="18" t="s">
         <v>44</v>
       </c>
@@ -2377,14 +2595,14 @@
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="5"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13">
       <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
@@ -2393,14 +2611,14 @@
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="33"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13">
       <c r="B49" s="18" t="s">
         <v>46</v>
       </c>
@@ -2409,14 +2627,14 @@
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="33"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13">
       <c r="B50" s="18" t="s">
         <v>47</v>
       </c>
@@ -2425,14 +2643,14 @@
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="33"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13">
       <c r="B51" s="18" t="s">
         <v>48</v>
       </c>
@@ -2441,14 +2659,14 @@
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="33"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13">
       <c r="B52" s="18" t="s">
         <v>49</v>
       </c>
@@ -2457,38 +2675,38 @@
       <c r="E52" s="5"/>
       <c r="F52" s="6"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="33"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13">
       <c r="B53" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" s="23"/>
-      <c r="H53" s="33"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13">
       <c r="B54" s="18" t="s">
         <v>51</v>
       </c>
@@ -2497,40 +2715,38 @@
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="33"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13">
       <c r="B55" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" s="23"/>
-      <c r="H55" s="33" t="s">
-        <v>91</v>
-      </c>
+      <c r="H55" s="33"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13">
       <c r="B56" s="18" t="s">
         <v>53</v>
       </c>
@@ -2539,142 +2755,150 @@
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
       <c r="G56" s="23"/>
-      <c r="H56" s="33"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13">
       <c r="B57" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" s="23"/>
-      <c r="H57" s="33"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13">
       <c r="B58" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G58" s="24"/>
-      <c r="H58" s="33"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13">
       <c r="B59" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G59" s="23"/>
-      <c r="H59" s="33"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13">
       <c r="B60" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="33"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13">
       <c r="B61" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="33"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13">
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="33"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13">
       <c r="B63" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="33"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13">
       <c r="B64" s="18" t="s">
         <v>60</v>
       </c>
@@ -2683,14 +2907,14 @@
       <c r="E64" s="5"/>
       <c r="F64" s="6"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="33"/>
+      <c r="H64" s="30"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13">
       <c r="B65" s="18" t="s">
         <v>61</v>
       </c>
@@ -2706,7 +2930,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13">
       <c r="B66" s="18" t="s">
         <v>62</v>
       </c>
@@ -2715,16 +2939,14 @@
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="I66" s="5"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="32"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13">
       <c r="B67" s="18" t="s">
         <v>63</v>
       </c>
@@ -2740,7 +2962,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13">
       <c r="B68" s="18" t="s">
         <v>64</v>
       </c>
@@ -2749,16 +2971,14 @@
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="33" t="s">
-        <v>91</v>
-      </c>
+      <c r="H68" s="30"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13">
       <c r="B69" s="18" t="s">
         <v>65</v>
       </c>
@@ -2767,78 +2987,78 @@
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="33"/>
+      <c r="H69" s="30"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13">
       <c r="B70" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="33"/>
+      <c r="C70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="24"/>
+      <c r="H70" s="30"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13">
       <c r="B71" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="33"/>
+      <c r="H71" s="30"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13">
       <c r="B72" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="33"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="30"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13">
       <c r="B73" s="18" t="s">
         <v>69</v>
       </c>
@@ -2847,54 +3067,54 @@
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="33"/>
+      <c r="H73" s="30"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13">
       <c r="B74" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="33"/>
+      <c r="C74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="24"/>
+      <c r="H74" s="30"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13">
       <c r="B75" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="33"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="30"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13">
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
@@ -2903,14 +3123,14 @@
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="33"/>
+      <c r="H76" s="30"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13">
       <c r="B77" s="18" t="s">
         <v>73</v>
       </c>
@@ -2919,54 +3139,54 @@
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="33"/>
+      <c r="H77" s="30"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13">
       <c r="B78" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="33"/>
+      <c r="C78" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="30"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13">
       <c r="B79" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="33"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="30"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13">
       <c r="B80" s="18" t="s">
         <v>76</v>
       </c>
@@ -2975,100 +3195,100 @@
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="5"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="32"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13">
       <c r="B81" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="33"/>
+      <c r="C81" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="24"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13">
       <c r="B82" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="G82" s="23"/>
+      <c r="H82" s="30"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13">
       <c r="B83" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="24"/>
+      <c r="H83" s="30"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13">
       <c r="B84" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="5"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="32"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13">
       <c r="B85" s="18" t="s">
         <v>81</v>
       </c>
@@ -3077,14 +3297,14 @@
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="33"/>
+      <c r="H85" s="30"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13">
       <c r="B86" s="18" t="s">
         <v>82</v>
       </c>
@@ -3093,78 +3313,78 @@
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="33"/>
+      <c r="H86" s="30"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13">
       <c r="B87" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="33"/>
+        <v>109</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="24"/>
+      <c r="H87" s="30"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13">
       <c r="B88" s="18" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G88" s="24"/>
-      <c r="H88" s="33"/>
+      <c r="H88" s="30"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13">
       <c r="B89" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G89" s="24"/>
-      <c r="H89" s="33"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="30"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13">
       <c r="B90" s="18" t="s">
         <v>85</v>
       </c>
@@ -3173,70 +3393,70 @@
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="33"/>
+      <c r="H90" s="30"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13">
       <c r="B91" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="33"/>
+      <c r="H91" s="30"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13">
       <c r="B92" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="33"/>
+      <c r="C92" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" s="24"/>
+      <c r="H92" s="30"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13">
       <c r="B93" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G93" s="24"/>
-      <c r="H93" s="33"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="30"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13">
       <c r="B94" s="18" t="s">
         <v>94</v>
       </c>
@@ -3245,14 +3465,14 @@
       <c r="E94" s="5"/>
       <c r="F94" s="6"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="33"/>
+      <c r="H94" s="30"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13">
       <c r="B95" s="18" t="s">
         <v>95</v>
       </c>
@@ -3261,14 +3481,14 @@
       <c r="E95" s="5"/>
       <c r="F95" s="6"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="33"/>
+      <c r="H95" s="30"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13">
       <c r="B96" s="18" t="s">
         <v>96</v>
       </c>
@@ -3277,14 +3497,14 @@
       <c r="E96" s="5"/>
       <c r="F96" s="6"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="33"/>
+      <c r="H96" s="30"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13">
       <c r="B97" s="18" t="s">
         <v>97</v>
       </c>
@@ -3293,14 +3513,14 @@
       <c r="E97" s="5"/>
       <c r="F97" s="6"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="33"/>
+      <c r="H97" s="30"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13">
       <c r="B98" s="18" t="s">
         <v>98</v>
       </c>
@@ -3309,44 +3529,52 @@
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="33"/>
+      <c r="H98" s="30"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13">
       <c r="B99" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="33"/>
+      <c r="C99" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" s="24"/>
+      <c r="H99" s="30"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13">
       <c r="B100" s="18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G100" s="24"/>
       <c r="H100" s="33"/>
@@ -3356,79 +3584,69 @@
       <c r="L100" s="5"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13">
       <c r="B101" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="G101" s="24"/>
-      <c r="H101" s="33" t="s">
-        <v>91</v>
-      </c>
+      <c r="H101" s="30"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13">
       <c r="B102" s="18" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="G102" s="24"/>
-      <c r="H102" s="33"/>
+      <c r="H102" s="30"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13">
       <c r="B103" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G103" s="24"/>
-      <c r="H103" s="33"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="30"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13">
       <c r="B104" s="18" t="s">
         <v>102</v>
       </c>
@@ -3436,15 +3654,15 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="33"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="30"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13">
       <c r="B105" s="18" t="s">
         <v>103</v>
       </c>
@@ -3452,15 +3670,15 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="33"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="30"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13">
       <c r="B106" s="18" t="s">
         <v>104</v>
       </c>
@@ -3469,14 +3687,14 @@
       <c r="E106" s="5"/>
       <c r="F106" s="6"/>
       <c r="G106" s="23"/>
-      <c r="H106" s="33"/>
+      <c r="H106" s="30"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13">
       <c r="B107" s="18" t="s">
         <v>105</v>
       </c>
@@ -3485,352 +3703,352 @@
       <c r="E107" s="5"/>
       <c r="F107" s="6"/>
       <c r="G107" s="23"/>
-      <c r="H107" s="33"/>
+      <c r="H107" s="30"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13">
       <c r="B108" s="18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="6"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="33"/>
+      <c r="H108" s="30"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13">
       <c r="B109" s="18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="6"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="33"/>
+      <c r="H109" s="30"/>
       <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
+      <c r="J109" s="32"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B110" s="19"/>
+    <row r="110" spans="2:13">
+      <c r="B110" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
       <c r="G110" s="23"/>
-      <c r="H110" s="33"/>
+      <c r="H110" s="30"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="J110" s="32"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B111" s="19"/>
+    <row r="111" spans="2:13">
+      <c r="B111" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="33"/>
+      <c r="H111" s="30"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B112" s="19"/>
+    <row r="112" spans="2:13">
+      <c r="B112" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
       <c r="G112" s="23"/>
-      <c r="H112" s="33"/>
+      <c r="H112" s="30"/>
       <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
+      <c r="J112" s="32"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B113" s="19"/>
+    <row r="113" spans="2:13">
+      <c r="B113" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
       <c r="G113" s="23"/>
-      <c r="H113" s="33"/>
+      <c r="H113" s="30"/>
       <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
+      <c r="J113" s="32"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B114" s="19"/>
+    <row r="114" spans="2:13">
+      <c r="B114" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="6"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="33"/>
+      <c r="H114" s="30"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B115" s="19"/>
+    <row r="115" spans="2:13">
+      <c r="B115" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="6"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="33"/>
+      <c r="H115" s="30"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B116" s="19"/>
+    <row r="116" spans="2:13">
+      <c r="B116" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="G116" s="23"/>
-      <c r="H116" s="33"/>
+      <c r="H116" s="30"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="33"/>
+      <c r="H117" s="30"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="G118" s="23"/>
-      <c r="H118" s="33"/>
+      <c r="H118" s="30"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="G119" s="23"/>
-      <c r="H119" s="33"/>
+      <c r="H119" s="30"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="33"/>
+      <c r="H120" s="30"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="33"/>
+      <c r="H121" s="30"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="G122" s="23"/>
-      <c r="H122" s="33"/>
+      <c r="H122" s="30"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="G123" s="23"/>
-      <c r="H123" s="33"/>
+      <c r="H123" s="30"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="G124" s="23"/>
-      <c r="H124" s="33"/>
+      <c r="H124" s="30"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="G125" s="23"/>
-      <c r="H125" s="33"/>
+      <c r="H125" s="30"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="6"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="33"/>
+      <c r="H126" s="30"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="6"/>
       <c r="G127" s="23"/>
-      <c r="H127" s="33"/>
+      <c r="H127" s="30"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="33"/>
+      <c r="H128" s="30"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="33"/>
+      <c r="H129" s="30"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B130" s="19"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="6"/>
-    </row>
-    <row r="131" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B131" s="20"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="8"/>
+    <row r="130" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B130" s="20"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA89D524-87AB-4EBC-AB99-44566F13F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A2259-6026-4C19-B90A-F02168038E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="7545" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>Cântare</t>
   </si>
@@ -934,7 +934,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1747,11 +1747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
@@ -1765,15 +1765,15 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:13" ht="16.5" thickBot="1">
+    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="34" t="s">
         <v>111</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1">
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2123,14 +2123,22 @@
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="30"/>
       <c r="I21" s="5"/>
@@ -2139,7 +2147,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
@@ -2155,7 +2163,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +2187,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +2211,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
@@ -2219,7 +2227,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +2243,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
@@ -2259,7 +2267,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
@@ -2275,7 +2283,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
@@ -2291,7 +2299,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
@@ -2315,7 +2323,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2339,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
@@ -2347,7 +2355,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>30</v>
       </c>
@@ -2363,7 +2371,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
@@ -2387,7 +2395,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>32</v>
       </c>
@@ -2403,7 +2411,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>33</v>
       </c>
@@ -2419,7 +2427,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
@@ -2434,7 +2442,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2458,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
@@ -2466,7 +2474,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>37</v>
       </c>
@@ -2482,7 +2490,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +2506,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>39</v>
       </c>
@@ -2514,7 +2522,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>40</v>
       </c>
@@ -2530,7 +2538,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>41</v>
       </c>
@@ -2546,7 +2554,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>42</v>
       </c>
@@ -2562,7 +2570,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
@@ -2586,7 +2594,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>44</v>
       </c>
@@ -2602,7 +2610,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
@@ -2618,7 +2626,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>46</v>
       </c>
@@ -2634,7 +2642,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>47</v>
       </c>
@@ -2650,7 +2658,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>48</v>
       </c>
@@ -2666,7 +2674,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>49</v>
       </c>
@@ -2682,7 +2690,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>50</v>
       </c>
@@ -2706,7 +2714,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>51</v>
       </c>
@@ -2722,7 +2730,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>52</v>
       </c>
@@ -2746,7 +2754,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>53</v>
       </c>
@@ -2762,7 +2770,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>54</v>
       </c>
@@ -2786,7 +2794,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>55</v>
       </c>
@@ -2810,7 +2818,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>123</v>
       </c>
@@ -2834,7 +2842,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>56</v>
       </c>
@@ -2850,7 +2858,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
@@ -2866,7 +2874,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>58</v>
       </c>
@@ -2882,7 +2890,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>59</v>
       </c>
@@ -2898,7 +2906,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>60</v>
       </c>
@@ -2914,7 +2922,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
         <v>61</v>
       </c>
@@ -2930,7 +2938,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>62</v>
       </c>
@@ -2946,7 +2954,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
         <v>63</v>
       </c>
@@ -2962,7 +2970,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>64</v>
       </c>
@@ -2978,7 +2986,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>65</v>
       </c>
@@ -2994,7 +3002,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>66</v>
       </c>
@@ -3018,7 +3026,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>67</v>
       </c>
@@ -3042,7 +3050,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
         <v>68</v>
       </c>
@@ -3058,7 +3066,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>69</v>
       </c>
@@ -3074,7 +3082,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>70</v>
       </c>
@@ -3098,7 +3106,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>71</v>
       </c>
@@ -3114,7 +3122,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
@@ -3130,7 +3138,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>73</v>
       </c>
@@ -3146,7 +3154,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>74</v>
       </c>
@@ -3170,7 +3178,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>75</v>
       </c>
@@ -3186,7 +3194,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>76</v>
       </c>
@@ -3202,7 +3210,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>77</v>
       </c>
@@ -3226,7 +3234,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>78</v>
       </c>
@@ -3250,7 +3258,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
         <v>79</v>
       </c>
@@ -3272,7 +3280,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
         <v>80</v>
       </c>
@@ -3288,7 +3296,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
         <v>81</v>
       </c>
@@ -3304,7 +3312,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>82</v>
       </c>
@@ -3320,7 +3328,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
         <v>109</v>
       </c>
@@ -3344,7 +3352,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
         <v>83</v>
       </c>
@@ -3368,7 +3376,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="18" t="s">
         <v>84</v>
       </c>
@@ -3384,7 +3392,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
         <v>85</v>
       </c>
@@ -3400,7 +3408,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
         <v>91</v>
       </c>
@@ -3416,7 +3424,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
         <v>92</v>
       </c>
@@ -3440,7 +3448,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
         <v>93</v>
       </c>
@@ -3456,7 +3464,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
         <v>94</v>
       </c>
@@ -3472,7 +3480,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
         <v>95</v>
       </c>
@@ -3488,7 +3496,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="18" t="s">
         <v>96</v>
       </c>
@@ -3504,7 +3512,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
         <v>97</v>
       </c>
@@ -3520,7 +3528,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="18" t="s">
         <v>98</v>
       </c>
@@ -3536,7 +3544,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="18" t="s">
         <v>99</v>
       </c>
@@ -3560,7 +3568,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
         <v>107</v>
       </c>
@@ -3584,7 +3592,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="18" t="s">
         <v>108</v>
       </c>
@@ -3606,7 +3614,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
         <v>100</v>
       </c>
@@ -3630,7 +3638,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="18" t="s">
         <v>101</v>
       </c>
@@ -3646,7 +3654,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
         <v>102</v>
       </c>
@@ -3662,7 +3670,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
         <v>103</v>
       </c>
@@ -3678,7 +3686,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
         <v>104</v>
       </c>
@@ -3694,7 +3702,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
         <v>105</v>
       </c>
@@ -3710,7 +3718,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
         <v>110</v>
       </c>
@@ -3726,7 +3734,7 @@
       <c r="L108" s="5"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="18" t="s">
         <v>115</v>
       </c>
@@ -3742,7 +3750,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
         <v>116</v>
       </c>
@@ -3758,7 +3766,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="18" t="s">
         <v>117</v>
       </c>
@@ -3774,7 +3782,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="18" t="s">
         <v>118</v>
       </c>
@@ -3790,7 +3798,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="18" t="s">
         <v>119</v>
       </c>
@@ -3806,7 +3814,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="18" t="s">
         <v>120</v>
       </c>
@@ -3822,7 +3830,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="18" t="s">
         <v>121</v>
       </c>
@@ -3838,7 +3846,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
         <v>122</v>
       </c>
@@ -3854,7 +3862,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -3868,7 +3876,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="2:13">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -3882,7 +3890,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -3896,7 +3904,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -3910,7 +3918,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -3924,7 +3932,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -3938,7 +3946,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -3952,7 +3960,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="2:13">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -3966,7 +3974,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -3980,7 +3988,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -3994,7 +4002,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="2:13">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -4008,7 +4016,7 @@
       <c r="L127" s="5"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="2:13">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -4022,7 +4030,7 @@
       <c r="L128" s="5"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -4036,7 +4044,7 @@
       <c r="L129" s="5"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="2:13" ht="16.5" thickBot="1">
+    <row r="130" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A2259-6026-4C19-B90A-F02168038E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F0EF29-CC1C-4088-843B-7529EA391D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="7545" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="6885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -740,9 +729,6 @@
     <t>17.11.24</t>
   </si>
   <si>
-    <t>01.12.24</t>
-  </si>
-  <si>
     <r>
       <t>107.</t>
     </r>
@@ -813,6 +799,104 @@
   </si>
   <si>
     <r>
+      <t>111.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Aleluia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>112.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>113.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>114.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">56.    Harfa lui David </t>
+  </si>
+  <si>
+    <t>01.12.24 (prima data incepatori 2024)</t>
+  </si>
+  <si>
+    <r>
       <t>110.</t>
     </r>
     <r>
@@ -831,103 +915,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Ce bine ecând frații</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>111.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Aleluia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>112.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>113.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>114.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">56.    Harfa lui David </t>
+      <t xml:space="preserve"> Ce bine e când frații</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1747,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1757,8 +1746,8 @@
     <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1799,7 +1788,7 @@
         <v>113</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
@@ -2820,7 +2809,7 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>90</v>
@@ -3736,7 +3725,7 @@
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
@@ -3752,7 +3741,7 @@
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
@@ -3768,7 +3757,7 @@
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
@@ -3784,7 +3773,7 @@
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
@@ -3800,7 +3789,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
@@ -3816,7 +3805,7 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
@@ -3832,7 +3821,7 @@
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
@@ -3848,7 +3837,7 @@
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F0EF29-CC1C-4088-843B-7529EA391D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522802A4-9C06-427A-AA30-2BCE6F84FCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="6885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="124">
   <si>
     <t>Cântare</t>
   </si>
@@ -923,7 +923,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,11 +1736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
@@ -1754,15 +1754,15 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:13" ht="16.5" thickBot="1">
       <c r="H2" s="34" t="s">
         <v>111</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" thickBot="1">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
@@ -2096,14 +2096,22 @@
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="30"/>
       <c r="I20" s="5"/>
@@ -2112,7 +2120,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2144,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
@@ -2152,7 +2160,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
@@ -2176,7 +2184,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
@@ -2200,7 +2208,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
@@ -2216,7 +2224,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2240,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
@@ -2256,7 +2264,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +2280,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
@@ -2288,7 +2296,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
@@ -2312,7 +2320,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
@@ -2328,7 +2336,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
@@ -2344,7 +2352,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13">
       <c r="B33" s="18" t="s">
         <v>30</v>
       </c>
@@ -2360,7 +2368,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13">
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
@@ -2384,7 +2392,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13">
       <c r="B35" s="18" t="s">
         <v>32</v>
       </c>
@@ -2400,7 +2408,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13">
       <c r="B36" s="18" t="s">
         <v>33</v>
       </c>
@@ -2416,7 +2424,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13">
       <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
@@ -2431,7 +2439,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" s="18" t="s">
         <v>35</v>
       </c>
@@ -2447,7 +2455,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13">
       <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
@@ -2463,7 +2471,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13">
       <c r="B40" s="18" t="s">
         <v>37</v>
       </c>
@@ -2479,7 +2487,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13">
       <c r="B41" s="18" t="s">
         <v>38</v>
       </c>
@@ -2495,7 +2503,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13">
       <c r="B42" s="18" t="s">
         <v>39</v>
       </c>
@@ -2511,7 +2519,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13">
       <c r="B43" s="18" t="s">
         <v>40</v>
       </c>
@@ -2527,7 +2535,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13">
       <c r="B44" s="18" t="s">
         <v>41</v>
       </c>
@@ -2543,7 +2551,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13">
       <c r="B45" s="18" t="s">
         <v>42</v>
       </c>
@@ -2559,7 +2567,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13">
       <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
@@ -2583,7 +2591,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13">
       <c r="B47" s="18" t="s">
         <v>44</v>
       </c>
@@ -2599,7 +2607,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13">
       <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
@@ -2615,7 +2623,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13">
       <c r="B49" s="18" t="s">
         <v>46</v>
       </c>
@@ -2631,7 +2639,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13">
       <c r="B50" s="18" t="s">
         <v>47</v>
       </c>
@@ -2647,7 +2655,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13">
       <c r="B51" s="18" t="s">
         <v>48</v>
       </c>
@@ -2663,7 +2671,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13">
       <c r="B52" s="18" t="s">
         <v>49</v>
       </c>
@@ -2679,7 +2687,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13">
       <c r="B53" s="18" t="s">
         <v>50</v>
       </c>
@@ -2703,7 +2711,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13">
       <c r="B54" s="18" t="s">
         <v>51</v>
       </c>
@@ -2719,7 +2727,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13">
       <c r="B55" s="18" t="s">
         <v>52</v>
       </c>
@@ -2743,7 +2751,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13">
       <c r="B56" s="18" t="s">
         <v>53</v>
       </c>
@@ -2759,7 +2767,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13">
       <c r="B57" s="18" t="s">
         <v>54</v>
       </c>
@@ -2783,7 +2791,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13">
       <c r="B58" s="18" t="s">
         <v>55</v>
       </c>
@@ -2807,7 +2815,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13">
       <c r="B59" s="18" t="s">
         <v>121</v>
       </c>
@@ -2831,7 +2839,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13">
       <c r="B60" s="18" t="s">
         <v>56</v>
       </c>
@@ -2847,7 +2855,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13">
       <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
@@ -2863,7 +2871,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13">
       <c r="B62" s="18" t="s">
         <v>58</v>
       </c>
@@ -2879,7 +2887,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13">
       <c r="B63" s="18" t="s">
         <v>59</v>
       </c>
@@ -2895,7 +2903,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13">
       <c r="B64" s="18" t="s">
         <v>60</v>
       </c>
@@ -2911,7 +2919,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13">
       <c r="B65" s="18" t="s">
         <v>61</v>
       </c>
@@ -2927,7 +2935,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13">
       <c r="B66" s="18" t="s">
         <v>62</v>
       </c>
@@ -2943,7 +2951,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13">
       <c r="B67" s="18" t="s">
         <v>63</v>
       </c>
@@ -2959,7 +2967,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13">
       <c r="B68" s="18" t="s">
         <v>64</v>
       </c>
@@ -2975,7 +2983,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13">
       <c r="B69" s="18" t="s">
         <v>65</v>
       </c>
@@ -2991,7 +2999,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13">
       <c r="B70" s="18" t="s">
         <v>66</v>
       </c>
@@ -3015,7 +3023,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13">
       <c r="B71" s="18" t="s">
         <v>67</v>
       </c>
@@ -3039,7 +3047,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13">
       <c r="B72" s="18" t="s">
         <v>68</v>
       </c>
@@ -3055,7 +3063,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13">
       <c r="B73" s="18" t="s">
         <v>69</v>
       </c>
@@ -3071,7 +3079,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13">
       <c r="B74" s="18" t="s">
         <v>70</v>
       </c>
@@ -3095,7 +3103,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13">
       <c r="B75" s="18" t="s">
         <v>71</v>
       </c>
@@ -3111,7 +3119,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13">
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
@@ -3127,7 +3135,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13">
       <c r="B77" s="18" t="s">
         <v>73</v>
       </c>
@@ -3143,7 +3151,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13">
       <c r="B78" s="18" t="s">
         <v>74</v>
       </c>
@@ -3167,7 +3175,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13">
       <c r="B79" s="18" t="s">
         <v>75</v>
       </c>
@@ -3183,7 +3191,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13">
       <c r="B80" s="18" t="s">
         <v>76</v>
       </c>
@@ -3199,7 +3207,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13">
       <c r="B81" s="18" t="s">
         <v>77</v>
       </c>
@@ -3223,7 +3231,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13">
       <c r="B82" s="18" t="s">
         <v>78</v>
       </c>
@@ -3247,7 +3255,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13">
       <c r="B83" s="18" t="s">
         <v>79</v>
       </c>
@@ -3269,7 +3277,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13">
       <c r="B84" s="18" t="s">
         <v>80</v>
       </c>
@@ -3285,7 +3293,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13">
       <c r="B85" s="18" t="s">
         <v>81</v>
       </c>
@@ -3301,7 +3309,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13">
       <c r="B86" s="18" t="s">
         <v>82</v>
       </c>
@@ -3317,7 +3325,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13">
       <c r="B87" s="18" t="s">
         <v>109</v>
       </c>
@@ -3341,7 +3349,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13">
       <c r="B88" s="18" t="s">
         <v>83</v>
       </c>
@@ -3365,7 +3373,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13">
       <c r="B89" s="18" t="s">
         <v>84</v>
       </c>
@@ -3381,7 +3389,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13">
       <c r="B90" s="18" t="s">
         <v>85</v>
       </c>
@@ -3397,7 +3405,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13">
       <c r="B91" s="18" t="s">
         <v>91</v>
       </c>
@@ -3413,7 +3421,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13">
       <c r="B92" s="18" t="s">
         <v>92</v>
       </c>
@@ -3437,7 +3445,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13">
       <c r="B93" s="18" t="s">
         <v>93</v>
       </c>
@@ -3453,7 +3461,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13">
       <c r="B94" s="18" t="s">
         <v>94</v>
       </c>
@@ -3469,7 +3477,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13">
       <c r="B95" s="18" t="s">
         <v>95</v>
       </c>
@@ -3485,7 +3493,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13">
       <c r="B96" s="18" t="s">
         <v>96</v>
       </c>
@@ -3501,7 +3509,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13">
       <c r="B97" s="18" t="s">
         <v>97</v>
       </c>
@@ -3517,7 +3525,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13">
       <c r="B98" s="18" t="s">
         <v>98</v>
       </c>
@@ -3533,7 +3541,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13">
       <c r="B99" s="18" t="s">
         <v>99</v>
       </c>
@@ -3557,7 +3565,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13">
       <c r="B100" s="18" t="s">
         <v>107</v>
       </c>
@@ -3581,7 +3589,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13">
       <c r="B101" s="18" t="s">
         <v>108</v>
       </c>
@@ -3603,7 +3611,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13">
       <c r="B102" s="18" t="s">
         <v>100</v>
       </c>
@@ -3627,7 +3635,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13">
       <c r="B103" s="18" t="s">
         <v>101</v>
       </c>
@@ -3643,7 +3651,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13">
       <c r="B104" s="18" t="s">
         <v>102</v>
       </c>
@@ -3659,7 +3667,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13">
       <c r="B105" s="18" t="s">
         <v>103</v>
       </c>
@@ -3675,7 +3683,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13">
       <c r="B106" s="18" t="s">
         <v>104</v>
       </c>
@@ -3691,7 +3699,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13">
       <c r="B107" s="18" t="s">
         <v>105</v>
       </c>
@@ -3707,7 +3715,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13">
       <c r="B108" s="18" t="s">
         <v>110</v>
       </c>
@@ -3723,7 +3731,7 @@
       <c r="L108" s="5"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13">
       <c r="B109" s="18" t="s">
         <v>114</v>
       </c>
@@ -3739,7 +3747,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13">
       <c r="B110" s="18" t="s">
         <v>115</v>
       </c>
@@ -3755,7 +3763,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13">
       <c r="B111" s="18" t="s">
         <v>116</v>
       </c>
@@ -3771,7 +3779,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13">
       <c r="B112" s="18" t="s">
         <v>123</v>
       </c>
@@ -3787,7 +3795,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13">
       <c r="B113" s="18" t="s">
         <v>117</v>
       </c>
@@ -3803,7 +3811,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13">
       <c r="B114" s="18" t="s">
         <v>118</v>
       </c>
@@ -3819,7 +3827,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13">
       <c r="B115" s="18" t="s">
         <v>119</v>
       </c>
@@ -3835,7 +3843,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13">
       <c r="B116" s="18" t="s">
         <v>120</v>
       </c>
@@ -3851,7 +3859,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -3865,7 +3873,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -3879,7 +3887,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -3893,7 +3901,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -3907,7 +3915,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -3921,7 +3929,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -3935,7 +3943,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -3949,7 +3957,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -3963,7 +3971,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -3977,7 +3985,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -3991,7 +3999,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -4005,7 +4013,7 @@
       <c r="L127" s="5"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -4019,7 +4027,7 @@
       <c r="L128" s="5"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -4033,7 +4041,7 @@
       <c r="L129" s="5"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" ht="16.5" thickBot="1">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522802A4-9C06-427A-AA30-2BCE6F84FCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040BA6C-B816-412C-8238-8D37740BD2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="124">
   <si>
     <t>Cântare</t>
   </si>
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -3449,10 +3449,18 @@
       <c r="B93" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="6"/>
+      <c r="C93" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="G93" s="23"/>
       <c r="H93" s="30"/>
       <c r="I93" s="5"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040BA6C-B816-412C-8238-8D37740BD2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D574BB7-E060-4773-86D2-A00A6BDF1128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="6885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -893,9 +893,6 @@
     <t xml:space="preserve">56.    Harfa lui David </t>
   </si>
   <si>
-    <t>01.12.24 (prima data incepatori 2024)</t>
-  </si>
-  <si>
     <r>
       <t>110.</t>
     </r>
@@ -917,6 +914,9 @@
       </rPr>
       <t xml:space="preserve"> Ce bine e când frații</t>
     </r>
+  </si>
+  <si>
+    <t>23.11.24 (prima data incepatori 2024)</t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1749,8 +1749,7 @@
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1788,7 +1787,7 @@
         <v>113</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
@@ -3789,7 +3788,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D574BB7-E060-4773-86D2-A00A6BDF1128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251554C-95D2-49CD-A629-F6CAAD03FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="6885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -822,6 +822,81 @@
   </si>
   <si>
     <r>
+      <t>113.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>114.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">56.    Harfa lui David </t>
+  </si>
+  <si>
+    <r>
+      <t>110.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ce bine e când frații</t>
+    </r>
+  </si>
+  <si>
+    <t>23.11.24 (prima data incepatori 2024)</t>
+  </si>
+  <si>
+    <r>
       <t>112.</t>
     </r>
     <r>
@@ -840,90 +915,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>113.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>114.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">56.    Harfa lui David </t>
-  </si>
-  <si>
-    <r>
-      <t>110.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Ce bine e când frații</t>
-    </r>
-  </si>
-  <si>
-    <t>23.11.24 (prima data incepatori 2024)</t>
+      <t xml:space="preserve"> Domnul e bun</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,32 +1736,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.81640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:13" ht="16.5" thickBot="1">
+    <row r="1" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H2" s="34" t="s">
         <v>111</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1">
+    <row r="3" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1787,13 +1787,13 @@
         <v>113</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
         <v>30</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="18" t="s">
         <v>32</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
         <v>33</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
         <v>35</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
         <v>37</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>38</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
         <v>39</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
         <v>40</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
         <v>41</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="18" t="s">
         <v>42</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>44</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
         <v>46</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
         <v>47</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="18" t="s">
         <v>48</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
         <v>49</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="18" t="s">
         <v>50</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
         <v>51</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="18" t="s">
         <v>52</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="18" t="s">
         <v>53</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="18" t="s">
         <v>54</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="18" t="s">
         <v>55</v>
       </c>
@@ -2814,9 +2814,9 @@
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>90</v>
@@ -2838,7 +2838,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
         <v>56</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="18" t="s">
         <v>58</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="18" t="s">
         <v>59</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="18" t="s">
         <v>60</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="18" t="s">
         <v>61</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="18" t="s">
         <v>62</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="18" t="s">
         <v>63</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="18" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="18" t="s">
         <v>65</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="18" t="s">
         <v>66</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="18" t="s">
         <v>67</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="18" t="s">
         <v>68</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="18" t="s">
         <v>69</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
         <v>70</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="18" t="s">
         <v>71</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="18" t="s">
         <v>73</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" s="18" t="s">
         <v>74</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79" s="18" t="s">
         <v>75</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" s="18" t="s">
         <v>76</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" s="18" t="s">
         <v>77</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82" s="18" t="s">
         <v>78</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83" s="18" t="s">
         <v>79</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84" s="18" t="s">
         <v>80</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85" s="18" t="s">
         <v>81</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86" s="18" t="s">
         <v>82</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87" s="18" t="s">
         <v>109</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88" s="18" t="s">
         <v>83</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89" s="18" t="s">
         <v>84</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90" s="18" t="s">
         <v>85</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91" s="18" t="s">
         <v>91</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92" s="18" t="s">
         <v>92</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93" s="18" t="s">
         <v>93</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94" s="18" t="s">
         <v>94</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95" s="18" t="s">
         <v>95</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96" s="18" t="s">
         <v>96</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97" s="18" t="s">
         <v>97</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98" s="18" t="s">
         <v>98</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99" s="18" t="s">
         <v>99</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100" s="18" t="s">
         <v>107</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101" s="18" t="s">
         <v>108</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102" s="18" t="s">
         <v>100</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B103" s="18" t="s">
         <v>101</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B104" s="18" t="s">
         <v>102</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B105" s="18" t="s">
         <v>103</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B106" s="18" t="s">
         <v>104</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B107" s="18" t="s">
         <v>105</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B108" s="18" t="s">
         <v>110</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="L108" s="5"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B109" s="18" t="s">
         <v>114</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B110" s="18" t="s">
         <v>115</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B111" s="18" t="s">
         <v>116</v>
       </c>
@@ -3786,9 +3786,9 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B112" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
@@ -3802,7 +3802,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="18" t="s">
         <v>117</v>
       </c>
@@ -3818,9 +3818,9 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
@@ -3834,9 +3834,9 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
@@ -3850,9 +3850,9 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
@@ -3866,7 +3866,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -3880,7 +3880,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="2:13">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -3894,7 +3894,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -3908,7 +3908,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -3922,7 +3922,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -3936,7 +3936,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -3950,7 +3950,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -3964,7 +3964,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="2:13">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -3978,7 +3978,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -3992,7 +3992,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -4006,7 +4006,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="2:13">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -4020,7 +4020,7 @@
       <c r="L127" s="5"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="2:13">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -4034,7 +4034,7 @@
       <c r="L128" s="5"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -4048,7 +4048,7 @@
       <c r="L129" s="5"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="2:13" ht="16.5" thickBot="1">
+    <row r="130" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251554C-95D2-49CD-A629-F6CAAD03FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B87C9-D165-43A7-9F30-231D247E3271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
   <si>
     <t>Cântare</t>
   </si>
@@ -1736,32 +1736,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.81640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="34" t="s">
         <v>111</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
@@ -2351,14 +2351,22 @@
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G33" s="23"/>
       <c r="H33" s="30"/>
       <c r="I33" s="5"/>
@@ -2367,7 +2375,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
@@ -2391,7 +2399,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>32</v>
       </c>
@@ -2407,7 +2415,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>33</v>
       </c>
@@ -2423,7 +2431,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
@@ -2438,7 +2446,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>35</v>
       </c>
@@ -2454,7 +2462,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
@@ -2470,7 +2478,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>37</v>
       </c>
@@ -2486,7 +2494,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>38</v>
       </c>
@@ -2502,7 +2510,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>39</v>
       </c>
@@ -2518,7 +2526,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>40</v>
       </c>
@@ -2534,7 +2542,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>41</v>
       </c>
@@ -2550,7 +2558,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>42</v>
       </c>
@@ -2566,7 +2574,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
@@ -2590,7 +2598,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>44</v>
       </c>
@@ -2606,7 +2614,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
@@ -2622,7 +2630,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>46</v>
       </c>
@@ -2638,7 +2646,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>47</v>
       </c>
@@ -2654,7 +2662,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>48</v>
       </c>
@@ -2670,7 +2678,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>49</v>
       </c>
@@ -2686,7 +2694,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>50</v>
       </c>
@@ -2710,7 +2718,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>51</v>
       </c>
@@ -2726,7 +2734,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>52</v>
       </c>
@@ -2750,7 +2758,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>53</v>
       </c>
@@ -2766,7 +2774,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>54</v>
       </c>
@@ -2790,7 +2798,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>55</v>
       </c>
@@ -2814,7 +2822,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>120</v>
       </c>
@@ -2838,7 +2846,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>56</v>
       </c>
@@ -2854,7 +2862,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
@@ -2870,7 +2878,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>58</v>
       </c>
@@ -2886,7 +2894,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>59</v>
       </c>
@@ -2902,7 +2910,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>60</v>
       </c>
@@ -2918,7 +2926,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
         <v>61</v>
       </c>
@@ -2934,7 +2942,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>62</v>
       </c>
@@ -2950,7 +2958,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
         <v>63</v>
       </c>
@@ -2966,7 +2974,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +2990,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>65</v>
       </c>
@@ -2998,7 +3006,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>66</v>
       </c>
@@ -3022,7 +3030,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>67</v>
       </c>
@@ -3046,7 +3054,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
         <v>68</v>
       </c>
@@ -3062,7 +3070,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>69</v>
       </c>
@@ -3078,7 +3086,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>70</v>
       </c>
@@ -3102,7 +3110,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>71</v>
       </c>
@@ -3118,7 +3126,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
@@ -3134,7 +3142,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>73</v>
       </c>
@@ -3150,7 +3158,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>74</v>
       </c>
@@ -3174,7 +3182,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>75</v>
       </c>
@@ -3190,7 +3198,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>76</v>
       </c>
@@ -3206,7 +3214,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>77</v>
       </c>
@@ -3230,7 +3238,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>78</v>
       </c>
@@ -3254,7 +3262,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
         <v>79</v>
       </c>
@@ -3276,7 +3284,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
         <v>80</v>
       </c>
@@ -3292,7 +3300,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
         <v>81</v>
       </c>
@@ -3308,7 +3316,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>82</v>
       </c>
@@ -3324,7 +3332,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
         <v>109</v>
       </c>
@@ -3348,7 +3356,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
         <v>83</v>
       </c>
@@ -3372,7 +3380,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="18" t="s">
         <v>84</v>
       </c>
@@ -3388,7 +3396,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
         <v>85</v>
       </c>
@@ -3404,7 +3412,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
         <v>91</v>
       </c>
@@ -3420,7 +3428,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
         <v>92</v>
       </c>
@@ -3444,7 +3452,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
         <v>93</v>
       </c>
@@ -3468,7 +3476,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
         <v>94</v>
       </c>
@@ -3484,7 +3492,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
         <v>95</v>
       </c>
@@ -3500,7 +3508,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="18" t="s">
         <v>96</v>
       </c>
@@ -3516,7 +3524,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
         <v>97</v>
       </c>
@@ -3532,7 +3540,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="18" t="s">
         <v>98</v>
       </c>
@@ -3548,7 +3556,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="18" t="s">
         <v>99</v>
       </c>
@@ -3572,7 +3580,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
         <v>107</v>
       </c>
@@ -3596,7 +3604,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="18" t="s">
         <v>108</v>
       </c>
@@ -3618,7 +3626,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
         <v>100</v>
       </c>
@@ -3642,7 +3650,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="18" t="s">
         <v>101</v>
       </c>
@@ -3658,7 +3666,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
         <v>102</v>
       </c>
@@ -3674,7 +3682,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
         <v>103</v>
       </c>
@@ -3690,7 +3698,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
         <v>104</v>
       </c>
@@ -3706,7 +3714,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
         <v>105</v>
       </c>
@@ -3722,7 +3730,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
         <v>110</v>
       </c>
@@ -3738,7 +3746,7 @@
       <c r="L108" s="5"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="18" t="s">
         <v>114</v>
       </c>
@@ -3754,7 +3762,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
         <v>115</v>
       </c>
@@ -3770,7 +3778,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="18" t="s">
         <v>116</v>
       </c>
@@ -3786,7 +3794,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
@@ -3802,7 +3810,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="18" t="s">
         <v>117</v>
       </c>
@@ -3818,7 +3826,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="18" t="s">
         <v>123</v>
       </c>
@@ -3834,7 +3842,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="18" t="s">
         <v>118</v>
       </c>
@@ -3850,7 +3858,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
         <v>119</v>
       </c>
@@ -3866,7 +3874,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -3880,7 +3888,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -3894,7 +3902,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -3908,7 +3916,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -3922,7 +3930,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="5"/>
@@ -3936,7 +3944,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="5"/>
@@ -3950,7 +3958,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="5"/>
@@ -3964,7 +3972,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="5"/>
@@ -3978,7 +3986,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="5"/>
@@ -3992,7 +4000,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -4006,7 +4014,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -4020,7 +4028,7 @@
       <c r="L127" s="5"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -4034,7 +4042,7 @@
       <c r="L128" s="5"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -4048,7 +4056,7 @@
       <c r="L129" s="5"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="20"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B87C9-D165-43A7-9F30-231D247E3271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E972B8-A225-4B26-AF87-7DA71AAD34A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="124">
   <si>
     <t>Cântare</t>
   </si>
@@ -1737,7 +1737,7 @@
   <dimension ref="B1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2450,10 +2450,18 @@
       <c r="B38" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G38" s="23"/>
       <c r="H38" s="30"/>
       <c r="I38" s="5"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E972B8-A225-4B26-AF87-7DA71AAD34A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9EA53-7C0B-489D-817D-C14936BF6E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="52110" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="128">
   <si>
     <t>Cântare</t>
   </si>
@@ -222,9 +222,6 @@
     <t>66.    Ne-ai fost Doamne ajutor</t>
   </si>
   <si>
-    <t>67.    Sa-ntalnesc pe Domnul meu</t>
-  </si>
-  <si>
     <t>68.    Dacă vei vrea sa Primești</t>
   </si>
   <si>
@@ -723,12 +720,6 @@
     <t>Cântată</t>
   </si>
   <si>
-    <t>20.10.24</t>
-  </si>
-  <si>
-    <t>17.11.24</t>
-  </si>
-  <si>
     <r>
       <t>107.</t>
     </r>
@@ -893,9 +884,6 @@
     </r>
   </si>
   <si>
-    <t>23.11.24 (prima data incepatori 2024)</t>
-  </si>
-  <si>
     <r>
       <t>112.</t>
     </r>
@@ -917,6 +905,30 @@
       </rPr>
       <t xml:space="preserve"> Domnul e bun</t>
     </r>
+  </si>
+  <si>
+    <t>23.11.2024</t>
+  </si>
+  <si>
+    <t>17.11.2024</t>
+  </si>
+  <si>
+    <t>20.10.2024</t>
+  </si>
+  <si>
+    <t>27.02.2025</t>
+  </si>
+  <si>
+    <t>13.03.2025</t>
+  </si>
+  <si>
+    <t>23.03.2025</t>
+  </si>
+  <si>
+    <t>67.    Vocea Lui</t>
+  </si>
+  <si>
+    <t>17.04.2025</t>
   </si>
 </sst>
 </file>
@@ -965,12 +977,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1251,13 +1263,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1266,11 +1278,54 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1279,7 +1334,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1290,74 +1347,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1423,37 +1413,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M130"/>
+  <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1747,18 +1737,21 @@
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="36"/>
       <c r="J2" s="36"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1766,32 +1759,28 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+        <v>105</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
@@ -1802,12 +1791,12 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -1818,9 +1807,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="32"/>
+      <c r="H5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
@@ -1830,19 +1823,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="30"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1858,7 +1851,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1874,7 +1867,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1886,19 +1879,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1910,19 +1903,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1938,7 +1931,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1954,7 +1947,9 @@
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1966,17 +1961,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1992,7 +1989,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2004,19 +2001,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2032,7 +2029,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -2044,19 +2041,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -2072,7 +2069,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2088,7 +2085,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -2100,19 +2097,21 @@
         <v>17</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -2124,19 +2123,21 @@
         <v>18</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -2152,7 +2153,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2164,19 +2165,19 @@
         <v>20</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="30"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2188,19 +2189,19 @@
         <v>21</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="23"/>
-      <c r="H24" s="30"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2216,7 +2217,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -2232,7 +2233,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="30"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -2244,19 +2245,19 @@
         <v>24</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="23"/>
-      <c r="H27" s="30"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -2272,7 +2273,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="30"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -2288,7 +2289,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="30"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -2300,20 +2301,24 @@
         <v>27</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="23"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="32"/>
+      <c r="H30" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>127</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2328,7 +2333,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2344,7 +2349,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="30"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2356,19 +2361,21 @@
         <v>30</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="23"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="29" t="s">
+        <v>127</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2380,20 +2387,24 @@
         <v>31</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="23"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="32"/>
+      <c r="H34" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>121</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -2408,7 +2419,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="30"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2424,7 +2435,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="30"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2439,7 +2450,7 @@
       <c r="D37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="30"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -2451,19 +2462,21 @@
         <v>35</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="23"/>
-      <c r="H38" s="30"/>
+      <c r="H38" s="29" t="s">
+        <v>127</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2479,7 +2492,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="30"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -2495,7 +2508,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="30"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -2511,7 +2524,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="30"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -2527,7 +2540,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="30"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -2543,7 +2556,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="30"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -2559,7 +2572,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="30"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -2575,7 +2588,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="30"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -2587,19 +2600,19 @@
         <v>43</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="23"/>
-      <c r="H46" s="30"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -2615,8 +2628,10 @@
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="32"/>
+      <c r="H47" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -2631,7 +2646,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="30"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2647,7 +2662,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="30"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2663,7 +2678,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="30"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -2679,7 +2694,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="30"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -2695,7 +2710,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="6"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="30"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -2707,19 +2722,21 @@
         <v>50</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G53" s="23"/>
-      <c r="H53" s="30"/>
+      <c r="H53" s="29" t="s">
+        <v>125</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -2735,7 +2752,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="30"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -2747,19 +2764,21 @@
         <v>52</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G55" s="23"/>
-      <c r="H55" s="33"/>
+      <c r="H55" s="31" t="s">
+        <v>122</v>
+      </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -2775,7 +2794,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
       <c r="G56" s="23"/>
-      <c r="H56" s="30"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -2787,19 +2806,19 @@
         <v>54</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" s="23"/>
-      <c r="H57" s="30"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -2811,19 +2830,19 @@
         <v>55</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G58" s="24"/>
-      <c r="H58" s="30"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -2832,22 +2851,22 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G59" s="23"/>
-      <c r="H59" s="30"/>
+      <c r="H59" s="29"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -2863,7 +2882,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="30"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2879,7 +2898,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="30"/>
+      <c r="H61" s="29"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -2895,7 +2914,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="30"/>
+      <c r="H62" s="29"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -2911,7 +2930,9 @@
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="30"/>
+      <c r="H63" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -2927,7 +2948,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="6"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="30"/>
+      <c r="H64" s="29"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -2943,8 +2964,12 @@
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="5"/>
+      <c r="H65" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -2959,8 +2984,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="32"/>
+      <c r="H66" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -2975,7 +3002,9 @@
       <c r="E67" s="5"/>
       <c r="F67" s="6"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="33"/>
+      <c r="H67" s="31" t="s">
+        <v>122</v>
+      </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -2991,7 +3020,9 @@
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="30"/>
+      <c r="H68" s="29" t="s">
+        <v>125</v>
+      </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -3000,14 +3031,16 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="30"/>
+      <c r="H69" s="29" t="s">
+        <v>125</v>
+      </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -3016,22 +3049,22 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70" s="24"/>
-      <c r="H70" s="30"/>
+      <c r="H70" s="29"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -3040,22 +3073,22 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="30"/>
+      <c r="H71" s="29"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -3064,14 +3097,14 @@
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="6"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="30"/>
+      <c r="H72" s="29"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -3080,15 +3113,19 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="5"/>
+      <c r="H73" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -3096,22 +3133,22 @@
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G74" s="24"/>
-      <c r="H74" s="30"/>
+      <c r="H74" s="29"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -3120,14 +3157,14 @@
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
       <c r="G75" s="23"/>
-      <c r="H75" s="30"/>
+      <c r="H75" s="29"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -3136,14 +3173,14 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="30"/>
+      <c r="H76" s="29"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -3152,14 +3189,14 @@
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="30"/>
+      <c r="H77" s="29"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -3168,22 +3205,22 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G78" s="24"/>
-      <c r="H78" s="30"/>
+      <c r="H78" s="29"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -3192,14 +3229,14 @@
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="30"/>
+      <c r="H79" s="29"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -3208,15 +3245,17 @@
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="32"/>
+      <c r="H80" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -3224,22 +3263,22 @@
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G81" s="24"/>
-      <c r="H81" s="30"/>
+      <c r="H81" s="29"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -3248,22 +3287,22 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G82" s="23"/>
-      <c r="H82" s="30"/>
+      <c r="H82" s="29"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -3272,20 +3311,22 @@
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G83" s="24"/>
-      <c r="H83" s="30"/>
+      <c r="H83" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -3294,15 +3335,17 @@
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="32"/>
+      <c r="H84" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -3310,14 +3353,14 @@
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="30"/>
+      <c r="H85" s="29"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -3326,14 +3369,14 @@
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="30"/>
+      <c r="H86" s="29"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -3342,22 +3385,22 @@
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G87" s="24"/>
-      <c r="H87" s="30"/>
+      <c r="H87" s="29"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -3366,22 +3409,22 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G88" s="24"/>
-      <c r="H88" s="30"/>
+      <c r="H88" s="29"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -3390,14 +3433,14 @@
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="30"/>
+      <c r="H89" s="29"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -3406,14 +3449,14 @@
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="30"/>
+      <c r="H90" s="29"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -3422,14 +3465,14 @@
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="30"/>
+      <c r="H91" s="29"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -3438,22 +3481,22 @@
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G92" s="24"/>
-      <c r="H92" s="30"/>
+      <c r="H92" s="29"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -3462,22 +3505,22 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G93" s="23"/>
-      <c r="H93" s="30"/>
+      <c r="H93" s="29"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -3486,14 +3529,16 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="6"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="30"/>
+      <c r="H94" s="29" t="s">
+        <v>125</v>
+      </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -3502,14 +3547,14 @@
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="6"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="30"/>
+      <c r="H95" s="29"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -3518,14 +3563,14 @@
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="6"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="30"/>
+      <c r="H96" s="29"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -3534,14 +3579,14 @@
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="6"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="30"/>
+      <c r="H97" s="29"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -3550,14 +3595,14 @@
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="30"/>
+      <c r="H98" s="29"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -3566,22 +3611,22 @@
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G99" s="24"/>
-      <c r="H99" s="30"/>
+      <c r="H99" s="29"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -3590,22 +3635,24 @@
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G100" s="24"/>
-      <c r="H100" s="33"/>
+      <c r="H100" s="31" t="s">
+        <v>122</v>
+      </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -3614,20 +3661,20 @@
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G101" s="24"/>
-      <c r="H101" s="30"/>
+      <c r="H101" s="29"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -3636,22 +3683,22 @@
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G102" s="24"/>
-      <c r="H102" s="30"/>
+      <c r="H102" s="29"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -3660,14 +3707,14 @@
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="30"/>
+      <c r="H103" s="29"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -3676,14 +3723,14 @@
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="6"/>
       <c r="G104" s="24"/>
-      <c r="H104" s="30"/>
+      <c r="H104" s="29"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -3692,14 +3739,14 @@
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="30"/>
+      <c r="H105" s="29"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -3708,14 +3755,14 @@
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="6"/>
       <c r="G106" s="23"/>
-      <c r="H106" s="30"/>
+      <c r="H106" s="29"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -3724,14 +3771,14 @@
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="6"/>
       <c r="G107" s="23"/>
-      <c r="H107" s="30"/>
+      <c r="H107" s="29"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -3740,14 +3787,14 @@
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="6"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="30"/>
+      <c r="H108" s="29"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -3756,46 +3803,56 @@
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="6"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="32"/>
+      <c r="H109" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="6"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
       <c r="G110" s="23"/>
-      <c r="H110" s="30"/>
+      <c r="H110" s="29" t="s">
+        <v>120</v>
+      </c>
       <c r="I110" s="5"/>
-      <c r="J110" s="32"/>
+      <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="30"/>
+      <c r="H111" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -3804,46 +3861,56 @@
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
       <c r="G112" s="23"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="32"/>
+      <c r="H112" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
       <c r="G113" s="23"/>
-      <c r="H113" s="30"/>
+      <c r="H113" s="29" t="s">
+        <v>120</v>
+      </c>
       <c r="I113" s="5"/>
-      <c r="J113" s="32"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="6"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="30"/>
+      <c r="H114" s="29" t="s">
+        <v>125</v>
+      </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -3852,14 +3919,14 @@
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="6"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="30"/>
+      <c r="H115" s="29"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
@@ -3868,14 +3935,14 @@
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="G116" s="23"/>
-      <c r="H116" s="30"/>
+      <c r="H116" s="29"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -3889,7 +3956,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="30"/>
+      <c r="H117" s="29"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -3903,7 +3970,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="G118" s="23"/>
-      <c r="H118" s="30"/>
+      <c r="H118" s="29"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -3917,7 +3984,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="G119" s="23"/>
-      <c r="H119" s="30"/>
+      <c r="H119" s="29"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -3931,7 +3998,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="30"/>
+      <c r="H120" s="29"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -3945,7 +4012,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="30"/>
+      <c r="H121" s="29"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -3959,7 +4026,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="G122" s="23"/>
-      <c r="H122" s="30"/>
+      <c r="H122" s="29"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -3973,7 +4040,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="G123" s="23"/>
-      <c r="H123" s="30"/>
+      <c r="H123" s="29"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -3987,7 +4054,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="G124" s="23"/>
-      <c r="H124" s="30"/>
+      <c r="H124" s="29"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -4001,7 +4068,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="G125" s="23"/>
-      <c r="H125" s="30"/>
+      <c r="H125" s="29"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -4015,7 +4082,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="6"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="30"/>
+      <c r="H126" s="29"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -4029,7 +4096,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="6"/>
       <c r="G127" s="23"/>
-      <c r="H127" s="30"/>
+      <c r="H127" s="29"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -4043,7 +4110,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="30"/>
+      <c r="H128" s="29"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -4057,7 +4124,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="30"/>
+      <c r="H129" s="29"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -4071,7 +4138,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="8"/>
       <c r="G130" s="25"/>
-      <c r="H130" s="31"/>
+      <c r="H130" s="30"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -4080,7 +4147,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9EA53-7C0B-489D-817D-C14936BF6E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6526082C-478C-4D47-B39A-9CDCE0B15559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="52110" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1443,7 +1443,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1736,7 @@
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
@@ -1748,11 +1747,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6526082C-478C-4D47-B39A-9CDCE0B15559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E763E5-5A48-4378-81F4-91E031EB3C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="130">
   <si>
     <t>Cântare</t>
   </si>
@@ -929,6 +929,12 @@
   </si>
   <si>
     <t>17.04.2025</t>
+  </si>
+  <si>
+    <t>29.05.2025</t>
+  </si>
+  <si>
+    <t>08.06.2025</t>
   </si>
 </sst>
 </file>
@@ -982,7 +988,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1111,39 +1117,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1356,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,68 +1357,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1725,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1708,7 @@
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
@@ -1767,72 +1739,80 @@
       <c r="F3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
+      <c r="F4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="27" t="s">
         <v>120</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="29"/>
+      <c r="C6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1840,15 +1820,15 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1856,15 +1836,15 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1872,23 +1852,23 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="29"/>
+      <c r="C9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1896,23 +1876,23 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="29"/>
+      <c r="C10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1920,15 +1900,15 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1936,15 +1916,15 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="29" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="27" t="s">
         <v>123</v>
       </c>
       <c r="I12" s="5"/>
@@ -1954,21 +1934,21 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="27" t="s">
         <v>123</v>
       </c>
       <c r="I13" s="5"/>
@@ -1978,15 +1958,15 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1994,23 +1974,23 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="29"/>
+      <c r="C15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2018,15 +1998,15 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -2034,23 +2014,23 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="29"/>
+      <c r="C17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -2058,15 +2038,15 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="29"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2074,15 +2054,23 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="29"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -2090,23 +2078,23 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="29" t="s">
+      <c r="C20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="27" t="s">
         <v>123</v>
       </c>
       <c r="I20" s="5"/>
@@ -2116,23 +2104,23 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="29" t="s">
+      <c r="C21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="27" t="s">
         <v>123</v>
       </c>
       <c r="I21" s="5"/>
@@ -2142,15 +2130,15 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2158,23 +2146,23 @@
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="29"/>
+      <c r="C23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2182,23 +2170,23 @@
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="29"/>
+      <c r="C24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2206,15 +2194,15 @@
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="29"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -2222,15 +2210,15 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="29"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -2238,23 +2226,23 @@
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="29"/>
+      <c r="C27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -2262,15 +2250,15 @@
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="29"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -2278,15 +2266,15 @@
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="29"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -2294,26 +2282,26 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="29" t="s">
+      <c r="C30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="27" t="s">
         <v>127</v>
       </c>
       <c r="J30" s="5"/>
@@ -2322,15 +2310,15 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="29"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2338,15 +2326,23 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="29"/>
+      <c r="C32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2354,23 +2350,23 @@
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="29" t="s">
+      <c r="C33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="27" t="s">
         <v>127</v>
       </c>
       <c r="I33" s="5"/>
@@ -2380,26 +2376,26 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="31" t="s">
+      <c r="C34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J34" s="5"/>
@@ -2408,15 +2404,15 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="29"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2424,15 +2420,15 @@
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="29"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2440,14 +2436,14 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="5"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="29"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -2455,41 +2451,43 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="29" t="s">
+      <c r="C38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="29"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -2497,31 +2495,45 @@
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="5"/>
+      <c r="C40" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="29"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="27" t="s">
+        <v>129</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -2529,15 +2541,15 @@
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="29"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -2545,15 +2557,15 @@
       <c r="M42" s="6"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="29"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -2561,15 +2573,15 @@
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="29"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -2577,15 +2589,15 @@
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="29"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -2593,23 +2605,23 @@
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="23"/>
-      <c r="H46" s="29"/>
+      <c r="C46" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -2617,15 +2629,23 @@
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="32" t="s">
+      <c r="C47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I47" s="5"/>
@@ -2635,15 +2655,23 @@
       <c r="M47" s="6"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="29"/>
+      <c r="C48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="27"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2651,15 +2679,15 @@
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="29"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2667,15 +2695,15 @@
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="29"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -2683,15 +2711,15 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="29"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -2699,15 +2727,15 @@
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="29"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -2715,41 +2743,43 @@
       <c r="M52" s="6"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="29" t="s">
+      <c r="C53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="29"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -2757,23 +2787,23 @@
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="31" t="s">
+      <c r="C55" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="29" t="s">
         <v>122</v>
       </c>
       <c r="I55" s="5"/>
@@ -2783,15 +2813,15 @@
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="29"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -2799,23 +2829,23 @@
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="29"/>
+      <c r="C57" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="27"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -2823,23 +2853,23 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="29"/>
+      <c r="C58" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="22"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -2847,23 +2877,23 @@
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="29"/>
+      <c r="C59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="27"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -2871,15 +2901,15 @@
       <c r="M59" s="6"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="29"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="27"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2887,15 +2917,15 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="29"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="27"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -2903,15 +2933,15 @@
       <c r="M61" s="6"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="13"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="29"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -2919,33 +2949,35 @@
       <c r="M62" s="6"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="29" t="s">
+      <c r="G63" s="21"/>
+      <c r="H63" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="13"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="29"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="27"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -2953,15 +2985,15 @@
       <c r="M64" s="6"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="31" t="s">
+      <c r="G65" s="21"/>
+      <c r="H65" s="29" t="s">
         <v>122</v>
       </c>
       <c r="I65" s="5" t="s">
@@ -2973,15 +3005,15 @@
       <c r="M65" s="6"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="32" t="s">
+      <c r="G66" s="21"/>
+      <c r="H66" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I66" s="5"/>
@@ -2991,15 +3023,15 @@
       <c r="M66" s="6"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="31" t="s">
+      <c r="G67" s="21"/>
+      <c r="H67" s="29" t="s">
         <v>122</v>
       </c>
       <c r="I67" s="5"/>
@@ -3009,15 +3041,15 @@
       <c r="M67" s="6"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="29" t="s">
+      <c r="G68" s="21"/>
+      <c r="H68" s="27" t="s">
         <v>125</v>
       </c>
       <c r="I68" s="5"/>
@@ -3027,15 +3059,15 @@
       <c r="M68" s="6"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="29" t="s">
+      <c r="G69" s="21"/>
+      <c r="H69" s="27" t="s">
         <v>125</v>
       </c>
       <c r="I69" s="5"/>
@@ -3045,23 +3077,25 @@
       <c r="M69" s="6"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="29"/>
+      <c r="C70" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="22"/>
+      <c r="H70" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -3069,23 +3103,23 @@
       <c r="M70" s="6"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="29"/>
+      <c r="C71" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="22"/>
+      <c r="H71" s="27"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -3093,15 +3127,15 @@
       <c r="M71" s="6"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="29"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="27"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -3109,15 +3143,15 @@
       <c r="M72" s="6"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="29" t="s">
+      <c r="G73" s="21"/>
+      <c r="H73" s="27" t="s">
         <v>124</v>
       </c>
       <c r="I73" s="5" t="s">
@@ -3129,23 +3163,23 @@
       <c r="M73" s="6"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="29"/>
+      <c r="C74" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" s="22"/>
+      <c r="H74" s="27"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -3153,15 +3187,15 @@
       <c r="M74" s="6"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="29"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="27"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -3169,15 +3203,15 @@
       <c r="M75" s="6"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="13"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="29"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="27"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -3185,15 +3219,15 @@
       <c r="M76" s="6"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="13"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="29"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="27"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -3201,23 +3235,23 @@
       <c r="M77" s="6"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="29"/>
+      <c r="C78" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="22"/>
+      <c r="H78" s="27"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -3225,15 +3259,15 @@
       <c r="M78" s="6"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="29"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="27"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -3241,15 +3275,15 @@
       <c r="M79" s="6"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="32" t="s">
+      <c r="G80" s="21"/>
+      <c r="H80" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I80" s="5"/>
@@ -3259,23 +3293,23 @@
       <c r="M80" s="6"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="29"/>
+      <c r="C81" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" s="22"/>
+      <c r="H81" s="27"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -3283,23 +3317,23 @@
       <c r="M81" s="6"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G82" s="23"/>
-      <c r="H82" s="29"/>
+      <c r="C82" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="27"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -3307,21 +3341,21 @@
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="C83" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83" s="24"/>
-      <c r="H83" s="29" t="s">
+      <c r="F83" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" s="22"/>
+      <c r="H83" s="27" t="s">
         <v>123</v>
       </c>
       <c r="I83" s="5"/>
@@ -3331,15 +3365,15 @@
       <c r="M83" s="6"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="32" t="s">
+      <c r="G84" s="21"/>
+      <c r="H84" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I84" s="5"/>
@@ -3349,15 +3383,15 @@
       <c r="M84" s="6"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="29"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -3365,15 +3399,15 @@
       <c r="M85" s="6"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="29"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="27"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -3381,23 +3415,23 @@
       <c r="M86" s="6"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="29"/>
+      <c r="C87" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" s="22"/>
+      <c r="H87" s="27"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -3405,23 +3439,25 @@
       <c r="M87" s="6"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="29"/>
+      <c r="C88" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" s="22"/>
+      <c r="H88" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -3429,15 +3465,15 @@
       <c r="M88" s="6"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="29"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="27"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -3445,15 +3481,15 @@
       <c r="M89" s="6"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="12"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="29"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="27"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -3461,15 +3497,15 @@
       <c r="M90" s="6"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="12"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="29"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="27"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -3477,23 +3513,23 @@
       <c r="M91" s="6"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G92" s="24"/>
-      <c r="H92" s="29"/>
+      <c r="C92" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="22"/>
+      <c r="H92" s="27"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -3501,23 +3537,25 @@
       <c r="M92" s="6"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="29"/>
+      <c r="C93" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G93" s="21"/>
+      <c r="H93" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -3525,15 +3563,15 @@
       <c r="M93" s="6"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="13"/>
+      <c r="C94" s="12"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="29" t="s">
+      <c r="G94" s="21"/>
+      <c r="H94" s="27" t="s">
         <v>125</v>
       </c>
       <c r="I94" s="5"/>
@@ -3543,15 +3581,15 @@
       <c r="M94" s="6"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="29"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="27"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -3559,15 +3597,15 @@
       <c r="M95" s="6"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="13"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="29"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="27"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -3575,15 +3613,15 @@
       <c r="M96" s="6"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="13"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="29"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="27"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -3591,15 +3629,15 @@
       <c r="M97" s="6"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="29"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="27"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -3607,23 +3645,23 @@
       <c r="M98" s="6"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G99" s="24"/>
-      <c r="H99" s="29"/>
+      <c r="C99" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="27"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -3631,23 +3669,23 @@
       <c r="M99" s="6"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G100" s="24"/>
-      <c r="H100" s="31" t="s">
+      <c r="C100" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G100" s="22"/>
+      <c r="H100" s="29" t="s">
         <v>122</v>
       </c>
       <c r="I100" s="5"/>
@@ -3657,21 +3695,21 @@
       <c r="M100" s="6"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="5"/>
-      <c r="E101" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G101" s="24"/>
-      <c r="H101" s="29"/>
+      <c r="E101" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" s="22"/>
+      <c r="H101" s="27"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -3679,23 +3717,23 @@
       <c r="M101" s="6"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G102" s="24"/>
-      <c r="H102" s="29"/>
+      <c r="C102" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" s="22"/>
+      <c r="H102" s="27"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -3703,15 +3741,15 @@
       <c r="M102" s="6"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="13"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="29"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="27"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -3719,15 +3757,15 @@
       <c r="M103" s="6"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="13"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="29"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="27"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -3735,15 +3773,15 @@
       <c r="M104" s="6"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="13"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="29"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="27"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -3751,15 +3789,15 @@
       <c r="M105" s="6"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="13"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="29"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="27"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -3767,15 +3805,15 @@
       <c r="M106" s="6"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="13"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="29"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="27"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -3783,15 +3821,15 @@
       <c r="M107" s="6"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="13"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="29"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="27"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -3799,15 +3837,15 @@
       <c r="M108" s="6"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="13"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="29" t="s">
+      <c r="G109" s="21"/>
+      <c r="H109" s="27" t="s">
         <v>120</v>
       </c>
       <c r="I109" s="5" t="s">
@@ -3821,51 +3859,55 @@
       <c r="M109" s="6"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="13"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="29" t="s">
+      <c r="G110" s="21"/>
+      <c r="H110" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I110" s="5"/>
+      <c r="I110" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="K110" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="13"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="29" t="s">
+      <c r="G111" s="21"/>
+      <c r="H111" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I111" s="5"/>
+      <c r="I111" s="27"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="29" t="s">
+      <c r="G112" s="21"/>
+      <c r="H112" s="27" t="s">
         <v>120</v>
       </c>
       <c r="I112" s="5" t="s">
@@ -3879,15 +3921,15 @@
       <c r="M112" s="6"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="13"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="29" t="s">
+      <c r="G113" s="21"/>
+      <c r="H113" s="27" t="s">
         <v>120</v>
       </c>
       <c r="I113" s="5"/>
@@ -3897,15 +3939,15 @@
       <c r="M113" s="6"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C114" s="13"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="29" t="s">
+      <c r="G114" s="21"/>
+      <c r="H114" s="27" t="s">
         <v>125</v>
       </c>
       <c r="I114" s="5"/>
@@ -3915,15 +3957,15 @@
       <c r="M114" s="6"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="29"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="27"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
@@ -3931,15 +3973,15 @@
       <c r="M115" s="6"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="13"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="29"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="27"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -3947,13 +3989,13 @@
       <c r="M116" s="6"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="19"/>
-      <c r="C117" s="13"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="29"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="27"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -3961,13 +4003,13 @@
       <c r="M117" s="6"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="19"/>
-      <c r="C118" s="13"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="29"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="27"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -3975,13 +4017,13 @@
       <c r="M118" s="6"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="19"/>
-      <c r="C119" s="13"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="29"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="27"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -3989,13 +4031,13 @@
       <c r="M119" s="6"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="19"/>
-      <c r="C120" s="13"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="29"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="27"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -4003,13 +4045,13 @@
       <c r="M120" s="6"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="19"/>
-      <c r="C121" s="13"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="29"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="27"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -4017,13 +4059,13 @@
       <c r="M121" s="6"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" s="19"/>
-      <c r="C122" s="13"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="29"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="27"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -4031,13 +4073,13 @@
       <c r="M122" s="6"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="19"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="29"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="27"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -4045,13 +4087,13 @@
       <c r="M123" s="6"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="19"/>
-      <c r="C124" s="13"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="12"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="29"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="27"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -4059,13 +4101,13 @@
       <c r="M124" s="6"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="19"/>
-      <c r="C125" s="13"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="29"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="27"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -4073,13 +4115,13 @@
       <c r="M125" s="6"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" s="19"/>
-      <c r="C126" s="13"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="29"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="27"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -4087,13 +4129,13 @@
       <c r="M126" s="6"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B127" s="19"/>
-      <c r="C127" s="13"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="29"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="27"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -4101,13 +4143,13 @@
       <c r="M127" s="6"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="19"/>
-      <c r="C128" s="13"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="12"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="29"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="27"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -4115,13 +4157,13 @@
       <c r="M128" s="6"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="19"/>
-      <c r="C129" s="13"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="29"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="27"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -4129,13 +4171,13 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="20"/>
-      <c r="C130" s="16"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="14"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="8"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="30"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="28"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E763E5-5A48-4378-81F4-91E031EB3C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754BBCA-79E6-4F54-8D5F-A9D28ABF3AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="7065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="131">
   <si>
     <t>Cântare</t>
   </si>
@@ -812,6 +812,111 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">56.    Harfa lui David </t>
+  </si>
+  <si>
+    <r>
+      <t>110.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ce bine e când frații</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>112.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Domnul e bun</t>
+    </r>
+  </si>
+  <si>
+    <t>23.11.2024</t>
+  </si>
+  <si>
+    <t>17.11.2024</t>
+  </si>
+  <si>
+    <t>20.10.2024</t>
+  </si>
+  <si>
+    <t>27.02.2025</t>
+  </si>
+  <si>
+    <t>13.03.2025</t>
+  </si>
+  <si>
+    <t>23.03.2025</t>
+  </si>
+  <si>
+    <t>67.    Vocea Lui</t>
+  </si>
+  <si>
+    <t>17.04.2025</t>
+  </si>
+  <si>
+    <t>29.05.2025</t>
+  </si>
+  <si>
+    <t>08.06.2025</t>
+  </si>
+  <si>
+    <t>24.07.2025</t>
+  </si>
+  <si>
+    <r>
+      <t>114.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Vin-o la Isus</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>113.</t>
     </r>
@@ -831,110 +936,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>114.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">56.    Harfa lui David </t>
-  </si>
-  <si>
-    <r>
-      <t>110.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Ce bine e când frații</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>112.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Domnul e bun</t>
-    </r>
-  </si>
-  <si>
-    <t>23.11.2024</t>
-  </si>
-  <si>
-    <t>17.11.2024</t>
-  </si>
-  <si>
-    <t>20.10.2024</t>
-  </si>
-  <si>
-    <t>27.02.2025</t>
-  </si>
-  <si>
-    <t>13.03.2025</t>
-  </si>
-  <si>
-    <t>23.03.2025</t>
-  </si>
-  <si>
-    <t>67.    Vocea Lui</t>
-  </si>
-  <si>
-    <t>17.04.2025</t>
-  </si>
-  <si>
-    <t>29.05.2025</t>
-  </si>
-  <si>
-    <t>08.06.2025</t>
+      <t xml:space="preserve"> Arcuri încordate</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1697,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C119" activeCellId="1" sqref="H116 C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1711,7 @@
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
@@ -1783,15 +1786,17 @@
       <c r="F5" s="6"/>
       <c r="G5" s="21"/>
       <c r="H5" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
@@ -1925,7 +1930,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="21"/>
       <c r="H12" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1949,7 +1954,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="21"/>
       <c r="H13" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -2069,7 +2074,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="21"/>
       <c r="H19" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2095,7 +2100,7 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2121,9 +2126,11 @@
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -2299,10 +2306,10 @@
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2342,7 +2349,9 @@
         <v>89</v>
       </c>
       <c r="G32" s="21"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2367,7 +2376,7 @@
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2393,10 +2402,10 @@
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -2468,10 +2477,10 @@
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2512,10 +2521,10 @@
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -2532,7 +2541,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="21"/>
       <c r="H41" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -2646,7 +2655,7 @@
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -2671,7 +2680,9 @@
         <v>89</v>
       </c>
       <c r="G48" s="21"/>
-      <c r="H48" s="27"/>
+      <c r="H48" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2760,10 +2771,10 @@
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -2804,7 +2815,7 @@
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -2878,7 +2889,7 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>89</v>
@@ -2958,10 +2969,10 @@
       <c r="F63" s="6"/>
       <c r="G63" s="21"/>
       <c r="H63" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -2994,10 +3005,10 @@
       <c r="F65" s="6"/>
       <c r="G65" s="21"/>
       <c r="H65" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -3014,7 +3025,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="21"/>
       <c r="H66" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -3032,7 +3043,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="21"/>
       <c r="H67" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -3050,7 +3061,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="21"/>
       <c r="H68" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -3060,7 +3071,7 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -3068,7 +3079,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="21"/>
       <c r="H69" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -3094,7 +3105,7 @@
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -3152,10 +3163,10 @@
       <c r="F73" s="6"/>
       <c r="G73" s="21"/>
       <c r="H73" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -3284,7 +3295,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="21"/>
       <c r="H80" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3356,7 +3367,7 @@
       </c>
       <c r="G83" s="22"/>
       <c r="H83" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -3374,7 +3385,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="21"/>
       <c r="H84" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -3456,7 +3467,7 @@
       </c>
       <c r="G88" s="22"/>
       <c r="H88" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -3554,7 +3565,7 @@
       </c>
       <c r="G93" s="21"/>
       <c r="H93" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -3572,7 +3583,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="21"/>
       <c r="H94" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -3686,7 +3697,7 @@
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -3846,13 +3857,13 @@
       <c r="F109" s="6"/>
       <c r="G109" s="21"/>
       <c r="H109" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
@@ -3868,14 +3879,14 @@
       <c r="F110" s="6"/>
       <c r="G110" s="21"/>
       <c r="H110" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
@@ -3890,7 +3901,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="21"/>
       <c r="H111" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I111" s="27"/>
       <c r="J111" s="5"/>
@@ -3900,7 +3911,7 @@
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="5"/>
@@ -3908,13 +3919,13 @@
       <c r="F112" s="6"/>
       <c r="G112" s="21"/>
       <c r="H112" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I112" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J112" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
@@ -3930,7 +3941,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="21"/>
       <c r="H113" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
@@ -3940,7 +3951,7 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="5"/>
@@ -3948,7 +3959,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="21"/>
       <c r="H114" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
@@ -3958,7 +3969,7 @@
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="16" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="5"/>
@@ -3974,7 +3985,7 @@
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="5"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754BBCA-79E6-4F54-8D5F-A9D28ABF3AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C59A6B-80D7-4A2E-B76D-E955A21E33FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="7065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1700,33 +1700,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C119" activeCellId="1" sqref="H116 C119"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="49.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H2" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="L4" s="25"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
         <v>15</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>19</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>20</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
         <v>26</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>27</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>30</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="s">
         <v>31</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="s">
         <v>32</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="s">
         <v>33</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
         <v>34</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="s">
         <v>35</v>
       </c>
@@ -2487,7 +2487,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="s">
         <v>36</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="16" t="s">
         <v>37</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="s">
         <v>38</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="s">
         <v>39</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="16" t="s">
         <v>40</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="16" t="s">
         <v>41</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="16" t="s">
         <v>42</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="16" t="s">
         <v>43</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="16" t="s">
         <v>44</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="16" t="s">
         <v>45</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="16" t="s">
         <v>46</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="16" t="s">
         <v>47</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="16" t="s">
         <v>48</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="16" t="s">
         <v>49</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="16" t="s">
         <v>50</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="16" t="s">
         <v>51</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="16" t="s">
         <v>52</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="16" t="s">
         <v>53</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="16" t="s">
         <v>54</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="16" t="s">
         <v>55</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="16" t="s">
         <v>115</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="16" t="s">
         <v>56</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="16" t="s">
         <v>57</v>
       </c>
@@ -2943,7 +2943,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="16" t="s">
         <v>58</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="16" t="s">
         <v>59</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="16" t="s">
         <v>60</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="16" t="s">
         <v>61</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="16" t="s">
         <v>62</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="16" t="s">
         <v>63</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="16" t="s">
         <v>64</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="16" t="s">
         <v>124</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="16" t="s">
         <v>65</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="16" t="s">
         <v>66</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="16" t="s">
         <v>67</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="16" t="s">
         <v>68</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="16" t="s">
         <v>69</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="16" t="s">
         <v>70</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" s="16" t="s">
         <v>71</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="16" t="s">
         <v>72</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" s="16" t="s">
         <v>73</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79" s="16" t="s">
         <v>74</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" s="16" t="s">
         <v>75</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" s="16" t="s">
         <v>76</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82" s="16" t="s">
         <v>77</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83" s="16" t="s">
         <v>78</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84" s="16" t="s">
         <v>79</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85" s="16" t="s">
         <v>80</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86" s="16" t="s">
         <v>81</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87" s="16" t="s">
         <v>108</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88" s="16" t="s">
         <v>82</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89" s="16" t="s">
         <v>83</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90" s="16" t="s">
         <v>84</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91" s="16" t="s">
         <v>90</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92" s="16" t="s">
         <v>91</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93" s="16" t="s">
         <v>92</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94" s="16" t="s">
         <v>93</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95" s="16" t="s">
         <v>94</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96" s="16" t="s">
         <v>95</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97" s="16" t="s">
         <v>96</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98" s="16" t="s">
         <v>97</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99" s="16" t="s">
         <v>98</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100" s="16" t="s">
         <v>106</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101" s="16" t="s">
         <v>107</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102" s="16" t="s">
         <v>99</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B103" s="16" t="s">
         <v>100</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B104" s="16" t="s">
         <v>101</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B105" s="16" t="s">
         <v>102</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B106" s="16" t="s">
         <v>103</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B107" s="16" t="s">
         <v>104</v>
       </c>
@@ -3831,7 +3831,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B108" s="16" t="s">
         <v>109</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="L108" s="5"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B109" s="16" t="s">
         <v>111</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B110" s="16" t="s">
         <v>112</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B111" s="16" t="s">
         <v>113</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B112" s="16" t="s">
         <v>116</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="16" t="s">
         <v>114</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="16" t="s">
         <v>117</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="16" t="s">
         <v>130</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" s="16" t="s">
         <v>129</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B117" s="17"/>
       <c r="C117" s="12"/>
       <c r="D117" s="5"/>
@@ -4013,7 +4013,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" s="17"/>
       <c r="C118" s="12"/>
       <c r="D118" s="5"/>
@@ -4027,7 +4027,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" s="17"/>
       <c r="C119" s="12"/>
       <c r="D119" s="5"/>
@@ -4041,7 +4041,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" s="17"/>
       <c r="C120" s="12"/>
       <c r="D120" s="5"/>
@@ -4055,7 +4055,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B121" s="17"/>
       <c r="C121" s="12"/>
       <c r="D121" s="5"/>
@@ -4069,7 +4069,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B122" s="17"/>
       <c r="C122" s="12"/>
       <c r="D122" s="5"/>
@@ -4083,7 +4083,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B123" s="17"/>
       <c r="C123" s="12"/>
       <c r="D123" s="5"/>
@@ -4097,7 +4097,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" s="17"/>
       <c r="C124" s="12"/>
       <c r="D124" s="5"/>
@@ -4111,7 +4111,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" s="17"/>
       <c r="C125" s="12"/>
       <c r="D125" s="5"/>
@@ -4125,7 +4125,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B126" s="17"/>
       <c r="C126" s="12"/>
       <c r="D126" s="5"/>
@@ -4139,7 +4139,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B127" s="17"/>
       <c r="C127" s="12"/>
       <c r="D127" s="5"/>
@@ -4153,7 +4153,7 @@
       <c r="L127" s="5"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B128" s="17"/>
       <c r="C128" s="12"/>
       <c r="D128" s="5"/>
@@ -4167,7 +4167,7 @@
       <c r="L128" s="5"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B129" s="17"/>
       <c r="C129" s="12"/>
       <c r="D129" s="5"/>
@@ -4181,7 +4181,7 @@
       <c r="L129" s="5"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="18"/>
       <c r="C130" s="14"/>
       <c r="D130" s="7"/>

--- a/resources/cuprins/Cuprins Orchestra.xlsx
+++ b/resources/cuprins/Cuprins Orchestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\OBPP24\resources\cuprins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C59A6B-80D7-4A2E-B76D-E955A21E33FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18280470-79B1-4A64-AD97-ADF12F446F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
